--- a/static/download/2023/RP3_APT_ATFM_ARR_2023_Jan_Apr.xlsx
+++ b/static/download/2023/RP3_APT_ATFM_ARR_2023_Jan_Apr.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhegendo\Downloads\05-release-20230510T160119Z-001\05-release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhegendo\Downloads\05-release-20230515T215334Z-001\05-release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B38802-589F-4246-B36B-46D8C21A229C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4793F45-1C5C-4EDB-8584-8B214578346A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17325" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="APT_ATFM_SES_YY" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve">   </t>
+    <t xml:space="preserve">  </t>
   </si>
   <si>
     <t>Period: JAN-APR</t>
@@ -2138,7 +2138,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="HEGENDORFER Holger" refreshedDate="45056.751739004627" refreshedVersion="8" recordCount="145" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="HEGENDORFER Holger" refreshedDate="45061.996347453707" refreshedVersion="8" recordCount="145" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A5:F150" sheet="APT_ATFM_APT"/>
   </cacheSource>
@@ -3803,17 +3803,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="15.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3834,7 +3834,7 @@
         <v>Airport ATFM delay</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
@@ -3854,7 +3854,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>8</v>
       </c>
@@ -3872,7 +3872,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>10</v>
       </c>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="F4" s="21"/>
     </row>
-    <row r="5" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>12</v>
       </c>
@@ -3901,7 +3901,7 @@
       </c>
       <c r="F5" s="21"/>
     </row>
-    <row r="6" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
         <v>16</v>
       </c>
@@ -3917,7 +3917,7 @@
       </c>
       <c r="F6" s="21"/>
     </row>
-    <row r="7" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
         <v>17</v>
       </c>
@@ -3933,7 +3933,7 @@
       </c>
       <c r="F7" s="21"/>
     </row>
-    <row r="8" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
         <v>18</v>
       </c>
@@ -3949,7 +3949,7 @@
       </c>
       <c r="F8" s="21"/>
     </row>
-    <row r="9" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
         <v>19</v>
       </c>
@@ -3965,7 +3965,7 @@
       </c>
       <c r="F9" s="21"/>
     </row>
-    <row r="10" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
         <v>20</v>
       </c>
@@ -3981,7 +3981,7 @@
       </c>
       <c r="F10" s="21"/>
     </row>
-    <row r="11" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
         <v>21</v>
       </c>
@@ -3997,7 +3997,7 @@
       </c>
       <c r="F11" s="21"/>
     </row>
-    <row r="12" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
         <v>22</v>
       </c>
@@ -4013,7 +4013,7 @@
       </c>
       <c r="F12" s="21"/>
     </row>
-    <row r="13" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
         <v>23</v>
       </c>
@@ -4029,7 +4029,7 @@
       </c>
       <c r="F13" s="21"/>
     </row>
-    <row r="14" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
         <v>24</v>
       </c>
@@ -4055,18 +4055,18 @@
       <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="15.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4088,7 +4088,7 @@
       </c>
       <c r="G1" s="31"/>
     </row>
-    <row r="2" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
@@ -4111,7 +4111,7 @@
       </c>
       <c r="G2" s="34"/>
     </row>
-    <row r="3" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="35"/>
       <c r="B3" s="35"/>
       <c r="C3" s="35"/>
@@ -4120,7 +4120,7 @@
       <c r="F3" s="35"/>
       <c r="G3" s="35"/>
     </row>
-    <row r="4" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="36"/>
       <c r="B4" s="37"/>
       <c r="C4" s="38"/>
@@ -4133,7 +4133,7 @@
       <c r="F4" s="41"/>
       <c r="G4" s="40"/>
     </row>
-    <row r="5" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="42" t="s">
         <v>25</v>
       </c>
@@ -4154,7 +4154,7 @@
       </c>
       <c r="G5" s="45"/>
     </row>
-    <row r="6" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="46" t="s">
         <v>28</v>
       </c>
@@ -4174,7 +4174,7 @@
       </c>
       <c r="G6" s="45"/>
     </row>
-    <row r="7" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="51" t="s">
         <v>29</v>
       </c>
@@ -4194,7 +4194,7 @@
       </c>
       <c r="G7" s="45"/>
     </row>
-    <row r="8" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="51" t="s">
         <v>30</v>
       </c>
@@ -4214,7 +4214,7 @@
       </c>
       <c r="G8" s="45"/>
     </row>
-    <row r="9" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="51" t="s">
         <v>31</v>
       </c>
@@ -4234,7 +4234,7 @@
       </c>
       <c r="G9" s="45"/>
     </row>
-    <row r="10" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="51" t="s">
         <v>32</v>
       </c>
@@ -4254,7 +4254,7 @@
       </c>
       <c r="G10" s="45"/>
     </row>
-    <row r="11" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="51" t="s">
         <v>33</v>
       </c>
@@ -4274,7 +4274,7 @@
       </c>
       <c r="G11" s="45"/>
     </row>
-    <row r="12" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="51" t="s">
         <v>34</v>
       </c>
@@ -4296,7 +4296,7 @@
       </c>
       <c r="G12" s="45"/>
     </row>
-    <row r="13" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="51" t="s">
         <v>35</v>
       </c>
@@ -4316,7 +4316,7 @@
       </c>
       <c r="G13" s="45"/>
     </row>
-    <row r="14" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="51" t="s">
         <v>36</v>
       </c>
@@ -4336,7 +4336,7 @@
       </c>
       <c r="G14" s="45"/>
     </row>
-    <row r="15" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="51" t="s">
         <v>37</v>
       </c>
@@ -4356,7 +4356,7 @@
       </c>
       <c r="G15" s="45"/>
     </row>
-    <row r="16" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="51" t="s">
         <v>38</v>
       </c>
@@ -4376,7 +4376,7 @@
       </c>
       <c r="G16" s="45"/>
     </row>
-    <row r="17" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="51" t="s">
         <v>39</v>
       </c>
@@ -4396,7 +4396,7 @@
       </c>
       <c r="G17" s="45"/>
     </row>
-    <row r="18" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="51" t="s">
         <v>40</v>
       </c>
@@ -4419,7 +4419,7 @@
       </c>
       <c r="G18" s="45"/>
     </row>
-    <row r="19" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="51" t="s">
         <v>41</v>
       </c>
@@ -4442,7 +4442,7 @@
       </c>
       <c r="G19" s="45"/>
     </row>
-    <row r="20" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="51" t="s">
         <v>42</v>
       </c>
@@ -4465,7 +4465,7 @@
       </c>
       <c r="G20" s="45"/>
     </row>
-    <row r="21" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="51" t="s">
         <v>43</v>
       </c>
@@ -4488,7 +4488,7 @@
       </c>
       <c r="G21" s="45"/>
     </row>
-    <row r="22" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="51" t="s">
         <v>44</v>
       </c>
@@ -4511,7 +4511,7 @@
       </c>
       <c r="G22" s="45"/>
     </row>
-    <row r="23" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="51" t="s">
         <v>45</v>
       </c>
@@ -4534,7 +4534,7 @@
       </c>
       <c r="G23" s="45"/>
     </row>
-    <row r="24" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="51" t="s">
         <v>46</v>
       </c>
@@ -4557,7 +4557,7 @@
       </c>
       <c r="G24" s="45"/>
     </row>
-    <row r="25" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="51" t="s">
         <v>47</v>
       </c>
@@ -4580,7 +4580,7 @@
       </c>
       <c r="G25" s="45"/>
     </row>
-    <row r="26" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="51" t="s">
         <v>48</v>
       </c>
@@ -4603,7 +4603,7 @@
       </c>
       <c r="G26" s="45"/>
     </row>
-    <row r="27" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="51" t="s">
         <v>49</v>
       </c>
@@ -4626,7 +4626,7 @@
       </c>
       <c r="G27" s="45"/>
     </row>
-    <row r="28" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="51" t="s">
         <v>50</v>
       </c>
@@ -4649,7 +4649,7 @@
       </c>
       <c r="G28" s="45"/>
     </row>
-    <row r="29" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="51" t="s">
         <v>51</v>
       </c>
@@ -4672,7 +4672,7 @@
       </c>
       <c r="G29" s="45"/>
     </row>
-    <row r="30" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="51" t="s">
         <v>52</v>
       </c>
@@ -4695,7 +4695,7 @@
       </c>
       <c r="G30" s="45"/>
     </row>
-    <row r="31" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="51" t="s">
         <v>53</v>
       </c>
@@ -4718,7 +4718,7 @@
       </c>
       <c r="G31" s="45"/>
     </row>
-    <row r="32" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="51" t="s">
         <v>54</v>
       </c>
@@ -4741,7 +4741,7 @@
       </c>
       <c r="G32" s="45"/>
     </row>
-    <row r="33" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="51" t="s">
         <v>55</v>
       </c>
@@ -4764,7 +4764,7 @@
       </c>
       <c r="G33" s="45"/>
     </row>
-    <row r="34" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="51" t="s">
         <v>56</v>
       </c>
@@ -4787,7 +4787,7 @@
       </c>
       <c r="G34" s="45"/>
     </row>
-    <row r="35" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="51" t="s">
         <v>57</v>
       </c>
@@ -4810,7 +4810,7 @@
       </c>
       <c r="G35" s="45"/>
     </row>
-    <row r="36" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="51" t="s">
         <v>58</v>
       </c>
@@ -4833,7 +4833,7 @@
       </c>
       <c r="G36" s="45"/>
     </row>
-    <row r="37" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="51" t="s">
         <v>59</v>
       </c>
@@ -4856,7 +4856,7 @@
       </c>
       <c r="G37" s="45"/>
     </row>
-    <row r="38" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="51" t="s">
         <v>60</v>
       </c>
@@ -4879,7 +4879,7 @@
       </c>
       <c r="G38" s="45"/>
     </row>
-    <row r="39" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="51" t="s">
         <v>61</v>
       </c>
@@ -4902,7 +4902,7 @@
       </c>
       <c r="G39" s="45"/>
     </row>
-    <row r="40" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="51" t="s">
         <v>62</v>
       </c>
@@ -4925,7 +4925,7 @@
       </c>
       <c r="G40" s="45"/>
     </row>
-    <row r="41" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="51" t="s">
         <v>63</v>
       </c>
@@ -4948,7 +4948,7 @@
       </c>
       <c r="G41" s="45"/>
     </row>
-    <row r="42" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="51" t="s">
         <v>64</v>
       </c>
@@ -4971,7 +4971,7 @@
       </c>
       <c r="G42" s="45"/>
     </row>
-    <row r="43" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="51" t="s">
         <v>65</v>
       </c>
@@ -4994,7 +4994,7 @@
       </c>
       <c r="G43" s="45"/>
     </row>
-    <row r="44" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="51" t="s">
         <v>66</v>
       </c>
@@ -5017,7 +5017,7 @@
       </c>
       <c r="G44" s="45"/>
     </row>
-    <row r="45" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="51" t="s">
         <v>67</v>
       </c>
@@ -5040,7 +5040,7 @@
       </c>
       <c r="G45" s="45"/>
     </row>
-    <row r="46" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="51" t="s">
         <v>68</v>
       </c>
@@ -5063,7 +5063,7 @@
       </c>
       <c r="G46" s="45"/>
     </row>
-    <row r="47" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="51" t="s">
         <v>69</v>
       </c>
@@ -5086,7 +5086,7 @@
       </c>
       <c r="G47" s="45"/>
     </row>
-    <row r="48" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="51" t="s">
         <v>70</v>
       </c>
@@ -5109,7 +5109,7 @@
       </c>
       <c r="G48" s="45"/>
     </row>
-    <row r="49" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="51" t="s">
         <v>71</v>
       </c>
@@ -5132,7 +5132,7 @@
       </c>
       <c r="G49" s="45"/>
     </row>
-    <row r="50" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="51" t="s">
         <v>72</v>
       </c>
@@ -5155,7 +5155,7 @@
       </c>
       <c r="G50" s="45"/>
     </row>
-    <row r="51" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="51" t="s">
         <v>73</v>
       </c>
@@ -5178,7 +5178,7 @@
       </c>
       <c r="G51" s="45"/>
     </row>
-    <row r="52" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="51" t="s">
         <v>74</v>
       </c>
@@ -5201,7 +5201,7 @@
       </c>
       <c r="G52" s="45"/>
     </row>
-    <row r="53" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="51" t="s">
         <v>75</v>
       </c>
@@ -5224,7 +5224,7 @@
       </c>
       <c r="G53" s="45"/>
     </row>
-    <row r="54" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="51" t="s">
         <v>76</v>
       </c>
@@ -5247,7 +5247,7 @@
       </c>
       <c r="G54" s="45"/>
     </row>
-    <row r="55" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="51" t="s">
         <v>77</v>
       </c>
@@ -5270,7 +5270,7 @@
       </c>
       <c r="G55" s="45"/>
     </row>
-    <row r="56" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="51" t="s">
         <v>78</v>
       </c>
@@ -5293,7 +5293,7 @@
       </c>
       <c r="G56" s="45"/>
     </row>
-    <row r="57" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="51" t="s">
         <v>79</v>
       </c>
@@ -5316,7 +5316,7 @@
       </c>
       <c r="G57" s="45"/>
     </row>
-    <row r="58" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="51" t="s">
         <v>80</v>
       </c>
@@ -5327,7 +5327,7 @@
       <c r="F58" s="63"/>
       <c r="G58" s="45"/>
     </row>
-    <row r="59" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="51" t="s">
         <v>81</v>
       </c>
@@ -5338,7 +5338,7 @@
       <c r="F59" s="63"/>
       <c r="G59" s="45"/>
     </row>
-    <row r="60" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="51" t="s">
         <v>82</v>
       </c>
@@ -5349,7 +5349,7 @@
       <c r="F60" s="63"/>
       <c r="G60" s="45"/>
     </row>
-    <row r="61" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="51" t="s">
         <v>83</v>
       </c>
@@ -5360,7 +5360,7 @@
       <c r="F61" s="63"/>
       <c r="G61" s="45"/>
     </row>
-    <row r="62" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="51" t="s">
         <v>84</v>
       </c>
@@ -5371,7 +5371,7 @@
       <c r="F62" s="63"/>
       <c r="G62" s="45"/>
     </row>
-    <row r="63" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="51" t="s">
         <v>85</v>
       </c>
@@ -5382,7 +5382,7 @@
       <c r="F63" s="63"/>
       <c r="G63" s="45"/>
     </row>
-    <row r="64" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="51" t="s">
         <v>86</v>
       </c>
@@ -5393,7 +5393,7 @@
       <c r="F64" s="63"/>
       <c r="G64" s="45"/>
     </row>
-    <row r="65" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="51" t="s">
         <v>87</v>
       </c>
@@ -5404,7 +5404,7 @@
       <c r="F65" s="61"/>
       <c r="G65" s="45"/>
     </row>
-    <row r="66" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="51" t="s">
         <v>88</v>
       </c>
@@ -5415,7 +5415,7 @@
       <c r="F66" s="65"/>
       <c r="G66" s="45"/>
     </row>
-    <row r="67" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="51" t="s">
         <v>89</v>
       </c>
@@ -5426,7 +5426,7 @@
       <c r="F67" s="63"/>
       <c r="G67" s="45"/>
     </row>
-    <row r="68" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="51" t="s">
         <v>90</v>
       </c>
@@ -5437,7 +5437,7 @@
       <c r="F68" s="63"/>
       <c r="G68" s="45"/>
     </row>
-    <row r="69" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="51" t="s">
         <v>91</v>
       </c>
@@ -5448,7 +5448,7 @@
       <c r="F69" s="63"/>
       <c r="G69" s="45"/>
     </row>
-    <row r="70" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="51" t="s">
         <v>92</v>
       </c>
@@ -5459,7 +5459,7 @@
       <c r="F70" s="63"/>
       <c r="G70" s="45"/>
     </row>
-    <row r="71" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="51" t="s">
         <v>93</v>
       </c>
@@ -5470,7 +5470,7 @@
       <c r="F71" s="63"/>
       <c r="G71" s="45"/>
     </row>
-    <row r="72" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="51" t="s">
         <v>94</v>
       </c>
@@ -5481,7 +5481,7 @@
       <c r="F72" s="63"/>
       <c r="G72" s="45"/>
     </row>
-    <row r="73" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="51" t="s">
         <v>95</v>
       </c>
@@ -5492,7 +5492,7 @@
       <c r="F73" s="63"/>
       <c r="G73" s="45"/>
     </row>
-    <row r="74" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="51" t="s">
         <v>96</v>
       </c>
@@ -5503,7 +5503,7 @@
       <c r="F74" s="63"/>
       <c r="G74" s="45"/>
     </row>
-    <row r="75" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="51" t="s">
         <v>97</v>
       </c>
@@ -5514,7 +5514,7 @@
       <c r="F75" s="63"/>
       <c r="G75" s="45"/>
     </row>
-    <row r="76" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="51" t="s">
         <v>98</v>
       </c>
@@ -5525,7 +5525,7 @@
       <c r="F76" s="63"/>
       <c r="G76" s="45"/>
     </row>
-    <row r="77" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="51" t="s">
         <v>99</v>
       </c>
@@ -5549,20 +5549,20 @@
   <dimension ref="A1:F530"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="15.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5583,7 +5583,7 @@
         <v>Airport ATFM delay</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
@@ -5605,7 +5605,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
@@ -5613,7 +5613,7 @@
       <c r="E3" s="35"/>
       <c r="F3" s="35"/>
     </row>
-    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="66" t="str">
         <f>APT_ATFM_SES_YY!A4</f>
         <v>Period: JAN-APR</v>
@@ -5624,7 +5624,7 @@
       <c r="E4" s="68"/>
       <c r="F4" s="21"/>
     </row>
-    <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="92"/>
       <c r="B5" s="93" t="s">
         <v>432</v>
@@ -5636,7 +5636,7 @@
       </c>
       <c r="F5" s="21"/>
     </row>
-    <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="93" t="s">
         <v>100</v>
       </c>
@@ -5654,7 +5654,7 @@
       </c>
       <c r="F6" s="21"/>
     </row>
-    <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="92" t="s">
         <v>104</v>
       </c>
@@ -5673,7 +5673,7 @@
       </c>
       <c r="F7" s="21"/>
     </row>
-    <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="101" t="s">
         <v>105</v>
       </c>
@@ -5692,7 +5692,7 @@
       </c>
       <c r="F8" s="21"/>
     </row>
-    <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="101" t="s">
         <v>106</v>
       </c>
@@ -5711,7 +5711,7 @@
       </c>
       <c r="F9" s="21"/>
     </row>
-    <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="101" t="s">
         <v>107</v>
       </c>
@@ -5730,7 +5730,7 @@
       </c>
       <c r="F10" s="21"/>
     </row>
-    <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="101" t="s">
         <v>108</v>
       </c>
@@ -5749,7 +5749,7 @@
       </c>
       <c r="F11" s="21"/>
     </row>
-    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="101" t="s">
         <v>109</v>
       </c>
@@ -5768,7 +5768,7 @@
       </c>
       <c r="F12" s="21"/>
     </row>
-    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="101" t="s">
         <v>110</v>
       </c>
@@ -5787,7 +5787,7 @@
       </c>
       <c r="F13" s="21"/>
     </row>
-    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="101" t="s">
         <v>111</v>
       </c>
@@ -5806,7 +5806,7 @@
       </c>
       <c r="F14" s="21"/>
     </row>
-    <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="101" t="s">
         <v>112</v>
       </c>
@@ -5827,7 +5827,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="101" t="s">
         <v>113</v>
       </c>
@@ -5846,7 +5846,7 @@
       </c>
       <c r="F16" s="21"/>
     </row>
-    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="101" t="s">
         <v>114</v>
       </c>
@@ -5865,7 +5865,7 @@
       </c>
       <c r="F17" s="21"/>
     </row>
-    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="101" t="s">
         <v>115</v>
       </c>
@@ -5884,7 +5884,7 @@
       </c>
       <c r="F18" s="21"/>
     </row>
-    <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="101" t="s">
         <v>116</v>
       </c>
@@ -5903,7 +5903,7 @@
       </c>
       <c r="F19" s="21"/>
     </row>
-    <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="101" t="s">
         <v>117</v>
       </c>
@@ -5922,7 +5922,7 @@
       </c>
       <c r="F20" s="21"/>
     </row>
-    <row r="21" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="101" t="s">
         <v>118</v>
       </c>
@@ -5941,7 +5941,7 @@
       </c>
       <c r="F21" s="21"/>
     </row>
-    <row r="22" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="101" t="s">
         <v>119</v>
       </c>
@@ -5960,7 +5960,7 @@
       </c>
       <c r="F22" s="21"/>
     </row>
-    <row r="23" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="101" t="s">
         <v>120</v>
       </c>
@@ -5979,7 +5979,7 @@
       </c>
       <c r="F23" s="21"/>
     </row>
-    <row r="24" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="101" t="s">
         <v>121</v>
       </c>
@@ -5998,7 +5998,7 @@
       </c>
       <c r="F24" s="21"/>
     </row>
-    <row r="25" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="101" t="s">
         <v>122</v>
       </c>
@@ -6017,7 +6017,7 @@
       </c>
       <c r="F25" s="21"/>
     </row>
-    <row r="26" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="101" t="s">
         <v>123</v>
       </c>
@@ -6036,7 +6036,7 @@
       </c>
       <c r="F26" s="21"/>
     </row>
-    <row r="27" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="101" t="s">
         <v>124</v>
       </c>
@@ -6055,7 +6055,7 @@
       </c>
       <c r="F27" s="21"/>
     </row>
-    <row r="28" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="101" t="s">
         <v>125</v>
       </c>
@@ -6074,7 +6074,7 @@
       </c>
       <c r="F28" s="21"/>
     </row>
-    <row r="29" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="105" t="s">
         <v>126</v>
       </c>
@@ -6093,7 +6093,7 @@
       </c>
       <c r="F29" s="21"/>
     </row>
-    <row r="30" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="45"/>
       <c r="B30" s="45"/>
       <c r="C30" s="45"/>
@@ -6101,7 +6101,7 @@
       <c r="E30" s="71"/>
       <c r="F30" s="21"/>
     </row>
-    <row r="31" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="45"/>
       <c r="B31" s="45"/>
       <c r="C31" s="45"/>
@@ -6109,7 +6109,7 @@
       <c r="E31" s="71"/>
       <c r="F31" s="21"/>
     </row>
-    <row r="32" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="45"/>
       <c r="B32" s="45"/>
       <c r="C32" s="45"/>
@@ -6117,7 +6117,7 @@
       <c r="E32" s="71"/>
       <c r="F32" s="21"/>
     </row>
-    <row r="33" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="45"/>
       <c r="B33" s="45"/>
       <c r="C33" s="45"/>
@@ -6125,7 +6125,7 @@
       <c r="E33" s="71"/>
       <c r="F33" s="21"/>
     </row>
-    <row r="34" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="45"/>
       <c r="B34" s="45"/>
       <c r="C34" s="45"/>
@@ -6133,7 +6133,7 @@
       <c r="E34" s="71"/>
       <c r="F34" s="21"/>
     </row>
-    <row r="35" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="45"/>
       <c r="B35" s="45"/>
       <c r="C35" s="45"/>
@@ -6141,7 +6141,7 @@
       <c r="E35" s="71"/>
       <c r="F35" s="21"/>
     </row>
-    <row r="36" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="45"/>
       <c r="B36" s="45"/>
       <c r="C36" s="45"/>
@@ -6149,7 +6149,7 @@
       <c r="E36" s="71"/>
       <c r="F36" s="21"/>
     </row>
-    <row r="37" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="45"/>
       <c r="B37" s="45"/>
       <c r="C37" s="45"/>
@@ -6157,7 +6157,7 @@
       <c r="E37" s="71"/>
       <c r="F37" s="21"/>
     </row>
-    <row r="38" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="45"/>
       <c r="B38" s="45"/>
       <c r="C38" s="45"/>
@@ -6165,7 +6165,7 @@
       <c r="E38" s="71"/>
       <c r="F38" s="21"/>
     </row>
-    <row r="39" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="45"/>
       <c r="B39" s="45"/>
       <c r="C39" s="45"/>
@@ -6173,7 +6173,7 @@
       <c r="E39" s="71"/>
       <c r="F39" s="21"/>
     </row>
-    <row r="40" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="45"/>
       <c r="B40" s="45"/>
       <c r="C40" s="45"/>
@@ -6181,7 +6181,7 @@
       <c r="E40" s="71"/>
       <c r="F40" s="21"/>
     </row>
-    <row r="41" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="45"/>
       <c r="B41" s="45"/>
       <c r="C41" s="45"/>
@@ -6189,7 +6189,7 @@
       <c r="E41" s="71"/>
       <c r="F41" s="21"/>
     </row>
-    <row r="42" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="45"/>
       <c r="B42" s="45"/>
       <c r="C42" s="45"/>
@@ -6197,7 +6197,7 @@
       <c r="E42" s="71"/>
       <c r="F42" s="21"/>
     </row>
-    <row r="43" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="45"/>
       <c r="B43" s="45"/>
       <c r="C43" s="45"/>
@@ -6205,7 +6205,7 @@
       <c r="E43" s="71"/>
       <c r="F43" s="21"/>
     </row>
-    <row r="44" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="45"/>
       <c r="B44" s="45"/>
       <c r="C44" s="45"/>
@@ -6213,7 +6213,7 @@
       <c r="E44" s="71"/>
       <c r="F44" s="21"/>
     </row>
-    <row r="45" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="45"/>
       <c r="B45" s="45"/>
       <c r="C45" s="45"/>
@@ -6221,7 +6221,7 @@
       <c r="E45" s="71"/>
       <c r="F45" s="21"/>
     </row>
-    <row r="46" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="45"/>
       <c r="B46" s="45"/>
       <c r="C46" s="45"/>
@@ -6229,7 +6229,7 @@
       <c r="E46" s="71"/>
       <c r="F46" s="21"/>
     </row>
-    <row r="47" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="45"/>
       <c r="B47" s="45"/>
       <c r="C47" s="45"/>
@@ -6237,7 +6237,7 @@
       <c r="E47" s="71"/>
       <c r="F47" s="21"/>
     </row>
-    <row r="48" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="45"/>
       <c r="B48" s="45"/>
       <c r="C48" s="45"/>
@@ -6245,7 +6245,7 @@
       <c r="E48" s="71"/>
       <c r="F48" s="21"/>
     </row>
-    <row r="49" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="45"/>
       <c r="B49" s="45"/>
       <c r="C49" s="45"/>
@@ -6253,7 +6253,7 @@
       <c r="E49" s="71"/>
       <c r="F49" s="21"/>
     </row>
-    <row r="50" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="45"/>
       <c r="B50" s="45"/>
       <c r="C50" s="45"/>
@@ -6261,7 +6261,7 @@
       <c r="E50" s="71"/>
       <c r="F50" s="21"/>
     </row>
-    <row r="51" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="45"/>
       <c r="B51" s="45"/>
       <c r="C51" s="45"/>
@@ -6269,7 +6269,7 @@
       <c r="E51" s="71"/>
       <c r="F51" s="21"/>
     </row>
-    <row r="52" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="45"/>
       <c r="B52" s="45"/>
       <c r="C52" s="45"/>
@@ -6277,7 +6277,7 @@
       <c r="E52" s="71"/>
       <c r="F52" s="21"/>
     </row>
-    <row r="53" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="45"/>
       <c r="B53" s="45"/>
       <c r="C53" s="45"/>
@@ -6285,7 +6285,7 @@
       <c r="E53" s="71"/>
       <c r="F53" s="21"/>
     </row>
-    <row r="54" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="45"/>
       <c r="B54" s="45"/>
       <c r="C54" s="45"/>
@@ -6293,7 +6293,7 @@
       <c r="E54" s="71"/>
       <c r="F54" s="21"/>
     </row>
-    <row r="55" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="45"/>
       <c r="B55" s="45"/>
       <c r="C55" s="45"/>
@@ -6301,7 +6301,7 @@
       <c r="E55" s="71"/>
       <c r="F55" s="21"/>
     </row>
-    <row r="56" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="45"/>
       <c r="B56" s="45"/>
       <c r="C56" s="45"/>
@@ -6309,7 +6309,7 @@
       <c r="E56" s="71"/>
       <c r="F56" s="21"/>
     </row>
-    <row r="57" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="45"/>
       <c r="B57" s="45"/>
       <c r="C57" s="45"/>
@@ -6317,7 +6317,7 @@
       <c r="E57" s="71"/>
       <c r="F57" s="21"/>
     </row>
-    <row r="58" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="45"/>
       <c r="B58" s="45"/>
       <c r="C58" s="45"/>
@@ -6325,7 +6325,7 @@
       <c r="E58" s="71"/>
       <c r="F58" s="21"/>
     </row>
-    <row r="59" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="45"/>
       <c r="B59" s="45"/>
       <c r="C59" s="45"/>
@@ -6333,7 +6333,7 @@
       <c r="E59" s="71"/>
       <c r="F59" s="21"/>
     </row>
-    <row r="60" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="45"/>
       <c r="B60" s="45"/>
       <c r="C60" s="45"/>
@@ -6341,7 +6341,7 @@
       <c r="E60" s="71"/>
       <c r="F60" s="21"/>
     </row>
-    <row r="61" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="45"/>
       <c r="B61" s="45"/>
       <c r="C61" s="45"/>
@@ -6349,7 +6349,7 @@
       <c r="E61" s="71"/>
       <c r="F61" s="21"/>
     </row>
-    <row r="62" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="45"/>
       <c r="B62" s="45"/>
       <c r="C62" s="45"/>
@@ -6357,7 +6357,7 @@
       <c r="E62" s="71"/>
       <c r="F62" s="21"/>
     </row>
-    <row r="63" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="45"/>
       <c r="B63" s="45"/>
       <c r="C63" s="45"/>
@@ -6365,7 +6365,7 @@
       <c r="E63" s="71"/>
       <c r="F63" s="21"/>
     </row>
-    <row r="64" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="45"/>
       <c r="B64" s="45"/>
       <c r="C64" s="45"/>
@@ -6373,7 +6373,7 @@
       <c r="E64" s="71"/>
       <c r="F64" s="21"/>
     </row>
-    <row r="65" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="45"/>
       <c r="B65" s="45"/>
       <c r="C65" s="45"/>
@@ -6381,7 +6381,7 @@
       <c r="E65" s="71"/>
       <c r="F65" s="21"/>
     </row>
-    <row r="66" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="45"/>
       <c r="B66" s="45"/>
       <c r="C66" s="45"/>
@@ -6389,7 +6389,7 @@
       <c r="E66" s="71"/>
       <c r="F66" s="21"/>
     </row>
-    <row r="67" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="45"/>
       <c r="B67" s="45"/>
       <c r="C67" s="45"/>
@@ -6397,7 +6397,7 @@
       <c r="E67" s="71"/>
       <c r="F67" s="21"/>
     </row>
-    <row r="68" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="45"/>
       <c r="B68" s="45"/>
       <c r="C68" s="45"/>
@@ -6405,7 +6405,7 @@
       <c r="E68" s="71"/>
       <c r="F68" s="21"/>
     </row>
-    <row r="69" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="45"/>
       <c r="B69" s="45"/>
       <c r="C69" s="45"/>
@@ -6413,7 +6413,7 @@
       <c r="E69" s="71"/>
       <c r="F69" s="21"/>
     </row>
-    <row r="70" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="45"/>
       <c r="B70" s="45"/>
       <c r="C70" s="45"/>
@@ -6421,7 +6421,7 @@
       <c r="E70" s="71"/>
       <c r="F70" s="21"/>
     </row>
-    <row r="71" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="45"/>
       <c r="B71" s="45"/>
       <c r="C71" s="45"/>
@@ -6429,7 +6429,7 @@
       <c r="E71" s="71"/>
       <c r="F71" s="21"/>
     </row>
-    <row r="72" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="45"/>
       <c r="B72" s="45"/>
       <c r="C72" s="45"/>
@@ -6437,7 +6437,7 @@
       <c r="E72" s="71"/>
       <c r="F72" s="21"/>
     </row>
-    <row r="73" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="45"/>
       <c r="B73" s="45"/>
       <c r="C73" s="45"/>
@@ -6445,7 +6445,7 @@
       <c r="E73" s="71"/>
       <c r="F73" s="21"/>
     </row>
-    <row r="74" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="45"/>
       <c r="B74" s="45"/>
       <c r="C74" s="45"/>
@@ -6453,7 +6453,7 @@
       <c r="E74" s="71"/>
       <c r="F74" s="21"/>
     </row>
-    <row r="75" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="45"/>
       <c r="B75" s="45"/>
       <c r="C75" s="45"/>
@@ -6461,7 +6461,7 @@
       <c r="E75" s="71"/>
       <c r="F75" s="21"/>
     </row>
-    <row r="76" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="45"/>
       <c r="B76" s="45"/>
       <c r="C76" s="45"/>
@@ -6469,7 +6469,7 @@
       <c r="E76" s="71"/>
       <c r="F76" s="21"/>
     </row>
-    <row r="77" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="45"/>
       <c r="B77" s="45"/>
       <c r="C77" s="45"/>
@@ -6477,7 +6477,7 @@
       <c r="E77" s="71"/>
       <c r="F77" s="21"/>
     </row>
-    <row r="78" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="45"/>
       <c r="B78" s="45"/>
       <c r="C78" s="45"/>
@@ -6485,7 +6485,7 @@
       <c r="E78" s="71"/>
       <c r="F78" s="21"/>
     </row>
-    <row r="79" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="45"/>
       <c r="B79" s="45"/>
       <c r="C79" s="45"/>
@@ -6493,7 +6493,7 @@
       <c r="E79" s="71"/>
       <c r="F79" s="21"/>
     </row>
-    <row r="80" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="45"/>
       <c r="B80" s="45"/>
       <c r="C80" s="45"/>
@@ -6501,7 +6501,7 @@
       <c r="E80" s="71"/>
       <c r="F80" s="21"/>
     </row>
-    <row r="81" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="45"/>
       <c r="B81" s="45"/>
       <c r="C81" s="45"/>
@@ -6509,7 +6509,7 @@
       <c r="E81" s="71"/>
       <c r="F81" s="21"/>
     </row>
-    <row r="82" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="45"/>
       <c r="B82" s="45"/>
       <c r="C82" s="45"/>
@@ -6517,7 +6517,7 @@
       <c r="E82" s="71"/>
       <c r="F82" s="21"/>
     </row>
-    <row r="83" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="45"/>
       <c r="B83" s="45"/>
       <c r="C83" s="45"/>
@@ -6525,7 +6525,7 @@
       <c r="E83" s="71"/>
       <c r="F83" s="21"/>
     </row>
-    <row r="84" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="45"/>
       <c r="B84" s="45"/>
       <c r="C84" s="45"/>
@@ -6533,7 +6533,7 @@
       <c r="E84" s="71"/>
       <c r="F84" s="21"/>
     </row>
-    <row r="85" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="45"/>
       <c r="B85" s="45"/>
       <c r="C85" s="45"/>
@@ -6541,7 +6541,7 @@
       <c r="E85" s="71"/>
       <c r="F85" s="21"/>
     </row>
-    <row r="86" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="45"/>
       <c r="B86" s="45"/>
       <c r="C86" s="45"/>
@@ -6549,7 +6549,7 @@
       <c r="E86" s="71"/>
       <c r="F86" s="21"/>
     </row>
-    <row r="87" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="45"/>
       <c r="B87" s="45"/>
       <c r="C87" s="45"/>
@@ -6557,7 +6557,7 @@
       <c r="E87" s="71"/>
       <c r="F87" s="21"/>
     </row>
-    <row r="88" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="45"/>
       <c r="B88" s="45"/>
       <c r="C88" s="45"/>
@@ -6565,7 +6565,7 @@
       <c r="E88" s="71"/>
       <c r="F88" s="21"/>
     </row>
-    <row r="89" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="45"/>
       <c r="B89" s="45"/>
       <c r="C89" s="45"/>
@@ -6573,7 +6573,7 @@
       <c r="E89" s="71"/>
       <c r="F89" s="21"/>
     </row>
-    <row r="90" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="45"/>
       <c r="B90" s="45"/>
       <c r="C90" s="45"/>
@@ -6581,7 +6581,7 @@
       <c r="E90" s="71"/>
       <c r="F90" s="21"/>
     </row>
-    <row r="91" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="45"/>
       <c r="B91" s="45"/>
       <c r="C91" s="45"/>
@@ -6589,7 +6589,7 @@
       <c r="E91" s="71"/>
       <c r="F91" s="21"/>
     </row>
-    <row r="92" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="45"/>
       <c r="B92" s="45"/>
       <c r="C92" s="45"/>
@@ -6597,7 +6597,7 @@
       <c r="E92" s="71"/>
       <c r="F92" s="21"/>
     </row>
-    <row r="93" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="45"/>
       <c r="B93" s="45"/>
       <c r="C93" s="45"/>
@@ -6605,7 +6605,7 @@
       <c r="E93" s="71"/>
       <c r="F93" s="21"/>
     </row>
-    <row r="94" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="45"/>
       <c r="B94" s="45"/>
       <c r="C94" s="45"/>
@@ -6613,7 +6613,7 @@
       <c r="E94" s="71"/>
       <c r="F94" s="21"/>
     </row>
-    <row r="95" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="45"/>
       <c r="B95" s="45"/>
       <c r="C95" s="45"/>
@@ -6621,7 +6621,7 @@
       <c r="E95" s="71"/>
       <c r="F95" s="21"/>
     </row>
-    <row r="96" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="45"/>
       <c r="B96" s="45"/>
       <c r="C96" s="45"/>
@@ -6629,7 +6629,7 @@
       <c r="E96" s="71"/>
       <c r="F96" s="21"/>
     </row>
-    <row r="97" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="45"/>
       <c r="B97" s="45"/>
       <c r="C97" s="45"/>
@@ -6637,7 +6637,7 @@
       <c r="E97" s="71"/>
       <c r="F97" s="21"/>
     </row>
-    <row r="98" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="45"/>
       <c r="B98" s="45"/>
       <c r="C98" s="45"/>
@@ -6645,7 +6645,7 @@
       <c r="E98" s="71"/>
       <c r="F98" s="21"/>
     </row>
-    <row r="99" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="45"/>
       <c r="B99" s="45"/>
       <c r="C99" s="45"/>
@@ -6653,7 +6653,7 @@
       <c r="E99" s="71"/>
       <c r="F99" s="21"/>
     </row>
-    <row r="100" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="45"/>
       <c r="B100" s="45"/>
       <c r="C100" s="45"/>
@@ -6661,7 +6661,7 @@
       <c r="E100" s="71"/>
       <c r="F100" s="21"/>
     </row>
-    <row r="101" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="45"/>
       <c r="B101" s="45"/>
       <c r="C101" s="45"/>
@@ -6669,7 +6669,7 @@
       <c r="E101" s="71"/>
       <c r="F101" s="21"/>
     </row>
-    <row r="102" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="45"/>
       <c r="B102" s="45"/>
       <c r="C102" s="45"/>
@@ -6677,7 +6677,7 @@
       <c r="E102" s="71"/>
       <c r="F102" s="21"/>
     </row>
-    <row r="103" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="45"/>
       <c r="B103" s="45"/>
       <c r="C103" s="45"/>
@@ -6685,7 +6685,7 @@
       <c r="E103" s="71"/>
       <c r="F103" s="21"/>
     </row>
-    <row r="104" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="45"/>
       <c r="B104" s="45"/>
       <c r="C104" s="45"/>
@@ -6693,7 +6693,7 @@
       <c r="E104" s="71"/>
       <c r="F104" s="21"/>
     </row>
-    <row r="105" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="45"/>
       <c r="B105" s="45"/>
       <c r="C105" s="45"/>
@@ -6701,7 +6701,7 @@
       <c r="E105" s="71"/>
       <c r="F105" s="21"/>
     </row>
-    <row r="106" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="45"/>
       <c r="B106" s="45"/>
       <c r="C106" s="45"/>
@@ -6709,7 +6709,7 @@
       <c r="E106" s="71"/>
       <c r="F106" s="21"/>
     </row>
-    <row r="107" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="45"/>
       <c r="B107" s="45"/>
       <c r="C107" s="45"/>
@@ -6717,7 +6717,7 @@
       <c r="E107" s="71"/>
       <c r="F107" s="21"/>
     </row>
-    <row r="108" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="45"/>
       <c r="B108" s="45"/>
       <c r="C108" s="45"/>
@@ -6725,7 +6725,7 @@
       <c r="E108" s="71"/>
       <c r="F108" s="21"/>
     </row>
-    <row r="109" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="45"/>
       <c r="B109" s="45"/>
       <c r="C109" s="45"/>
@@ -6733,7 +6733,7 @@
       <c r="E109" s="71"/>
       <c r="F109" s="21"/>
     </row>
-    <row r="110" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="45"/>
       <c r="B110" s="45"/>
       <c r="C110" s="45"/>
@@ -6741,7 +6741,7 @@
       <c r="E110" s="71"/>
       <c r="F110" s="21"/>
     </row>
-    <row r="111" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="45"/>
       <c r="B111" s="45"/>
       <c r="C111" s="45"/>
@@ -6749,7 +6749,7 @@
       <c r="E111" s="71"/>
       <c r="F111" s="21"/>
     </row>
-    <row r="112" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="45"/>
       <c r="B112" s="45"/>
       <c r="C112" s="45"/>
@@ -6757,7 +6757,7 @@
       <c r="E112" s="71"/>
       <c r="F112" s="21"/>
     </row>
-    <row r="113" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="45"/>
       <c r="B113" s="45"/>
       <c r="C113" s="45"/>
@@ -6765,7 +6765,7 @@
       <c r="E113" s="71"/>
       <c r="F113" s="21"/>
     </row>
-    <row r="114" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="45"/>
       <c r="B114" s="45"/>
       <c r="C114" s="45"/>
@@ -6773,7 +6773,7 @@
       <c r="E114" s="71"/>
       <c r="F114" s="21"/>
     </row>
-    <row r="115" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="45"/>
       <c r="B115" s="45"/>
       <c r="C115" s="45"/>
@@ -6781,7 +6781,7 @@
       <c r="E115" s="71"/>
       <c r="F115" s="21"/>
     </row>
-    <row r="116" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="45"/>
       <c r="B116" s="45"/>
       <c r="C116" s="45"/>
@@ -6789,7 +6789,7 @@
       <c r="E116" s="71"/>
       <c r="F116" s="21"/>
     </row>
-    <row r="117" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="45"/>
       <c r="B117" s="45"/>
       <c r="C117" s="45"/>
@@ -6797,7 +6797,7 @@
       <c r="E117" s="71"/>
       <c r="F117" s="21"/>
     </row>
-    <row r="118" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="45"/>
       <c r="B118" s="45"/>
       <c r="C118" s="45"/>
@@ -6805,7 +6805,7 @@
       <c r="E118" s="71"/>
       <c r="F118" s="21"/>
     </row>
-    <row r="119" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="45"/>
       <c r="B119" s="45"/>
       <c r="C119" s="45"/>
@@ -6813,7 +6813,7 @@
       <c r="E119" s="71"/>
       <c r="F119" s="21"/>
     </row>
-    <row r="120" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="45"/>
       <c r="B120" s="45"/>
       <c r="C120" s="45"/>
@@ -6821,7 +6821,7 @@
       <c r="E120" s="71"/>
       <c r="F120" s="21"/>
     </row>
-    <row r="121" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="45"/>
       <c r="B121" s="45"/>
       <c r="C121" s="45"/>
@@ -6829,7 +6829,7 @@
       <c r="E121" s="71"/>
       <c r="F121" s="21"/>
     </row>
-    <row r="122" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="45"/>
       <c r="B122" s="45"/>
       <c r="C122" s="45"/>
@@ -6837,7 +6837,7 @@
       <c r="E122" s="71"/>
       <c r="F122" s="21"/>
     </row>
-    <row r="123" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="45"/>
       <c r="B123" s="45"/>
       <c r="C123" s="45"/>
@@ -6845,7 +6845,7 @@
       <c r="E123" s="71"/>
       <c r="F123" s="21"/>
     </row>
-    <row r="124" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="45"/>
       <c r="B124" s="45"/>
       <c r="C124" s="45"/>
@@ -6853,7 +6853,7 @@
       <c r="E124" s="71"/>
       <c r="F124" s="21"/>
     </row>
-    <row r="125" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="45"/>
       <c r="B125" s="45"/>
       <c r="C125" s="45"/>
@@ -6861,7 +6861,7 @@
       <c r="E125" s="71"/>
       <c r="F125" s="21"/>
     </row>
-    <row r="126" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="45"/>
       <c r="B126" s="45"/>
       <c r="C126" s="45"/>
@@ -6869,7 +6869,7 @@
       <c r="E126" s="71"/>
       <c r="F126" s="21"/>
     </row>
-    <row r="127" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="45"/>
       <c r="B127" s="45"/>
       <c r="C127" s="45"/>
@@ -6877,7 +6877,7 @@
       <c r="E127" s="71"/>
       <c r="F127" s="21"/>
     </row>
-    <row r="128" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="45"/>
       <c r="B128" s="45"/>
       <c r="C128" s="45"/>
@@ -6885,7 +6885,7 @@
       <c r="E128" s="71"/>
       <c r="F128" s="21"/>
     </row>
-    <row r="129" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="45"/>
       <c r="B129" s="45"/>
       <c r="C129" s="45"/>
@@ -6893,7 +6893,7 @@
       <c r="E129" s="71"/>
       <c r="F129" s="21"/>
     </row>
-    <row r="130" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="45"/>
       <c r="B130" s="45"/>
       <c r="C130" s="45"/>
@@ -6901,7 +6901,7 @@
       <c r="E130" s="71"/>
       <c r="F130" s="21"/>
     </row>
-    <row r="131" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="45"/>
       <c r="B131" s="45"/>
       <c r="C131" s="45"/>
@@ -6909,7 +6909,7 @@
       <c r="E131" s="71"/>
       <c r="F131" s="21"/>
     </row>
-    <row r="132" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="45"/>
       <c r="B132" s="45"/>
       <c r="C132" s="45"/>
@@ -6917,7 +6917,7 @@
       <c r="E132" s="71"/>
       <c r="F132" s="21"/>
     </row>
-    <row r="133" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="45"/>
       <c r="B133" s="45"/>
       <c r="C133" s="45"/>
@@ -6925,7 +6925,7 @@
       <c r="E133" s="71"/>
       <c r="F133" s="21"/>
     </row>
-    <row r="134" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="45"/>
       <c r="B134" s="45"/>
       <c r="C134" s="45"/>
@@ -6933,7 +6933,7 @@
       <c r="E134" s="71"/>
       <c r="F134" s="21"/>
     </row>
-    <row r="135" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="45"/>
       <c r="B135" s="45"/>
       <c r="C135" s="45"/>
@@ -6941,7 +6941,7 @@
       <c r="E135" s="71"/>
       <c r="F135" s="21"/>
     </row>
-    <row r="136" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="45"/>
       <c r="B136" s="45"/>
       <c r="C136" s="45"/>
@@ -6949,7 +6949,7 @@
       <c r="E136" s="71"/>
       <c r="F136" s="21"/>
     </row>
-    <row r="137" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="45"/>
       <c r="B137" s="45"/>
       <c r="C137" s="45"/>
@@ -6957,7 +6957,7 @@
       <c r="E137" s="71"/>
       <c r="F137" s="21"/>
     </row>
-    <row r="138" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="45"/>
       <c r="B138" s="45"/>
       <c r="C138" s="45"/>
@@ -6965,7 +6965,7 @@
       <c r="E138" s="71"/>
       <c r="F138" s="21"/>
     </row>
-    <row r="139" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="45"/>
       <c r="B139" s="45"/>
       <c r="C139" s="45"/>
@@ -6973,7 +6973,7 @@
       <c r="E139" s="71"/>
       <c r="F139" s="21"/>
     </row>
-    <row r="140" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="45"/>
       <c r="B140" s="45"/>
       <c r="C140" s="45"/>
@@ -6981,7 +6981,7 @@
       <c r="E140" s="71"/>
       <c r="F140" s="21"/>
     </row>
-    <row r="141" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="45"/>
       <c r="B141" s="45"/>
       <c r="C141" s="45"/>
@@ -6989,7 +6989,7 @@
       <c r="E141" s="71"/>
       <c r="F141" s="21"/>
     </row>
-    <row r="142" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="45"/>
       <c r="B142" s="45"/>
       <c r="C142" s="45"/>
@@ -6997,7 +6997,7 @@
       <c r="E142" s="71"/>
       <c r="F142" s="21"/>
     </row>
-    <row r="143" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="45"/>
       <c r="B143" s="45"/>
       <c r="C143" s="45"/>
@@ -7005,7 +7005,7 @@
       <c r="E143" s="71"/>
       <c r="F143" s="21"/>
     </row>
-    <row r="144" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="45"/>
       <c r="B144" s="45"/>
       <c r="C144" s="45"/>
@@ -7013,7 +7013,7 @@
       <c r="E144" s="71"/>
       <c r="F144" s="21"/>
     </row>
-    <row r="145" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="45"/>
       <c r="B145" s="45"/>
       <c r="C145" s="45"/>
@@ -7021,7 +7021,7 @@
       <c r="E145" s="71"/>
       <c r="F145" s="21"/>
     </row>
-    <row r="146" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="45"/>
       <c r="B146" s="45"/>
       <c r="C146" s="45"/>
@@ -7029,7 +7029,7 @@
       <c r="E146" s="71"/>
       <c r="F146" s="21"/>
     </row>
-    <row r="147" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="45"/>
       <c r="B147" s="45"/>
       <c r="C147" s="45"/>
@@ -7037,7 +7037,7 @@
       <c r="E147" s="71"/>
       <c r="F147" s="21"/>
     </row>
-    <row r="148" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="45"/>
       <c r="B148" s="45"/>
       <c r="C148" s="45"/>
@@ -7045,7 +7045,7 @@
       <c r="E148" s="71"/>
       <c r="F148" s="21"/>
     </row>
-    <row r="149" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="45"/>
       <c r="B149" s="45"/>
       <c r="C149" s="45"/>
@@ -7053,7 +7053,7 @@
       <c r="E149" s="71"/>
       <c r="F149" s="21"/>
     </row>
-    <row r="150" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="45"/>
       <c r="B150" s="45"/>
       <c r="C150" s="45"/>
@@ -7061,7 +7061,7 @@
       <c r="E150" s="71"/>
       <c r="F150" s="21"/>
     </row>
-    <row r="151" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="45"/>
       <c r="B151" s="45"/>
       <c r="C151" s="45"/>
@@ -7069,7 +7069,7 @@
       <c r="E151" s="71"/>
       <c r="F151" s="21"/>
     </row>
-    <row r="152" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="45"/>
       <c r="B152" s="45"/>
       <c r="C152" s="45"/>
@@ -7077,7 +7077,7 @@
       <c r="E152" s="71"/>
       <c r="F152" s="21"/>
     </row>
-    <row r="153" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="45"/>
       <c r="B153" s="45"/>
       <c r="C153" s="45"/>
@@ -7085,7 +7085,7 @@
       <c r="E153" s="71"/>
       <c r="F153" s="21"/>
     </row>
-    <row r="154" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="45"/>
       <c r="B154" s="45"/>
       <c r="C154" s="45"/>
@@ -7093,7 +7093,7 @@
       <c r="E154" s="71"/>
       <c r="F154" s="21"/>
     </row>
-    <row r="155" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="45"/>
       <c r="B155" s="45"/>
       <c r="C155" s="45"/>
@@ -7101,7 +7101,7 @@
       <c r="E155" s="71"/>
       <c r="F155" s="21"/>
     </row>
-    <row r="156" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="45"/>
       <c r="B156" s="45"/>
       <c r="C156" s="45"/>
@@ -7109,7 +7109,7 @@
       <c r="E156" s="71"/>
       <c r="F156" s="21"/>
     </row>
-    <row r="157" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="45"/>
       <c r="B157" s="45"/>
       <c r="C157" s="45"/>
@@ -7117,7 +7117,7 @@
       <c r="E157" s="71"/>
       <c r="F157" s="21"/>
     </row>
-    <row r="158" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="45"/>
       <c r="B158" s="45"/>
       <c r="C158" s="45"/>
@@ -7125,7 +7125,7 @@
       <c r="E158" s="71"/>
       <c r="F158" s="21"/>
     </row>
-    <row r="159" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="45"/>
       <c r="B159" s="45"/>
       <c r="C159" s="45"/>
@@ -7133,7 +7133,7 @@
       <c r="E159" s="71"/>
       <c r="F159" s="21"/>
     </row>
-    <row r="160" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="45"/>
       <c r="B160" s="45"/>
       <c r="C160" s="45"/>
@@ -7141,7 +7141,7 @@
       <c r="E160" s="71"/>
       <c r="F160" s="21"/>
     </row>
-    <row r="161" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="45"/>
       <c r="B161" s="45"/>
       <c r="C161" s="45"/>
@@ -7149,7 +7149,7 @@
       <c r="E161" s="71"/>
       <c r="F161" s="21"/>
     </row>
-    <row r="162" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="45"/>
       <c r="B162" s="45"/>
       <c r="C162" s="45"/>
@@ -7157,7 +7157,7 @@
       <c r="E162" s="71"/>
       <c r="F162" s="21"/>
     </row>
-    <row r="163" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="45"/>
       <c r="B163" s="45"/>
       <c r="C163" s="45"/>
@@ -7165,7 +7165,7 @@
       <c r="E163" s="71"/>
       <c r="F163" s="21"/>
     </row>
-    <row r="164" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="45"/>
       <c r="B164" s="45"/>
       <c r="C164" s="45"/>
@@ -7173,7 +7173,7 @@
       <c r="E164" s="71"/>
       <c r="F164" s="21"/>
     </row>
-    <row r="165" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="45"/>
       <c r="B165" s="45"/>
       <c r="C165" s="45"/>
@@ -7181,7 +7181,7 @@
       <c r="E165" s="71"/>
       <c r="F165" s="21"/>
     </row>
-    <row r="166" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="45"/>
       <c r="B166" s="45"/>
       <c r="C166" s="45"/>
@@ -7189,7 +7189,7 @@
       <c r="E166" s="71"/>
       <c r="F166" s="21"/>
     </row>
-    <row r="167" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="45"/>
       <c r="B167" s="45"/>
       <c r="C167" s="45"/>
@@ -7197,7 +7197,7 @@
       <c r="E167" s="71"/>
       <c r="F167" s="21"/>
     </row>
-    <row r="168" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="45"/>
       <c r="B168" s="45"/>
       <c r="C168" s="45"/>
@@ -7205,7 +7205,7 @@
       <c r="E168" s="71"/>
       <c r="F168" s="21"/>
     </row>
-    <row r="169" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="45"/>
       <c r="B169" s="45"/>
       <c r="C169" s="45"/>
@@ -7213,7 +7213,7 @@
       <c r="E169" s="71"/>
       <c r="F169" s="21"/>
     </row>
-    <row r="170" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="45"/>
       <c r="B170" s="45"/>
       <c r="C170" s="45"/>
@@ -7221,7 +7221,7 @@
       <c r="E170" s="71"/>
       <c r="F170" s="21"/>
     </row>
-    <row r="171" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="45"/>
       <c r="B171" s="45"/>
       <c r="C171" s="45"/>
@@ -7229,7 +7229,7 @@
       <c r="E171" s="71"/>
       <c r="F171" s="21"/>
     </row>
-    <row r="172" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="45"/>
       <c r="B172" s="45"/>
       <c r="C172" s="45"/>
@@ -7237,7 +7237,7 @@
       <c r="E172" s="71"/>
       <c r="F172" s="21"/>
     </row>
-    <row r="173" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="45"/>
       <c r="B173" s="45"/>
       <c r="C173" s="45"/>
@@ -7245,7 +7245,7 @@
       <c r="E173" s="71"/>
       <c r="F173" s="21"/>
     </row>
-    <row r="174" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="45"/>
       <c r="B174" s="45"/>
       <c r="C174" s="45"/>
@@ -7253,7 +7253,7 @@
       <c r="E174" s="71"/>
       <c r="F174" s="21"/>
     </row>
-    <row r="175" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="45"/>
       <c r="B175" s="45"/>
       <c r="C175" s="45"/>
@@ -7261,7 +7261,7 @@
       <c r="E175" s="71"/>
       <c r="F175" s="21"/>
     </row>
-    <row r="176" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="45"/>
       <c r="B176" s="45"/>
       <c r="C176" s="45"/>
@@ -7269,7 +7269,7 @@
       <c r="E176" s="71"/>
       <c r="F176" s="21"/>
     </row>
-    <row r="177" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="45"/>
       <c r="B177" s="45"/>
       <c r="C177" s="45"/>
@@ -7277,7 +7277,7 @@
       <c r="E177" s="71"/>
       <c r="F177" s="21"/>
     </row>
-    <row r="178" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="45"/>
       <c r="B178" s="45"/>
       <c r="C178" s="45"/>
@@ -7285,7 +7285,7 @@
       <c r="E178" s="71"/>
       <c r="F178" s="21"/>
     </row>
-    <row r="179" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="45"/>
       <c r="B179" s="45"/>
       <c r="C179" s="45"/>
@@ -7293,7 +7293,7 @@
       <c r="E179" s="71"/>
       <c r="F179" s="21"/>
     </row>
-    <row r="180" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="45"/>
       <c r="B180" s="45"/>
       <c r="C180" s="45"/>
@@ -7301,7 +7301,7 @@
       <c r="E180" s="71"/>
       <c r="F180" s="21"/>
     </row>
-    <row r="181" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="45"/>
       <c r="B181" s="45"/>
       <c r="C181" s="45"/>
@@ -7309,7 +7309,7 @@
       <c r="E181" s="71"/>
       <c r="F181" s="21"/>
     </row>
-    <row r="182" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="45"/>
       <c r="B182" s="45"/>
       <c r="C182" s="45"/>
@@ -7317,7 +7317,7 @@
       <c r="E182" s="71"/>
       <c r="F182" s="21"/>
     </row>
-    <row r="183" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="45"/>
       <c r="B183" s="45"/>
       <c r="C183" s="45"/>
@@ -7325,7 +7325,7 @@
       <c r="E183" s="71"/>
       <c r="F183" s="21"/>
     </row>
-    <row r="184" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="45"/>
       <c r="B184" s="45"/>
       <c r="C184" s="45"/>
@@ -7333,7 +7333,7 @@
       <c r="E184" s="71"/>
       <c r="F184" s="21"/>
     </row>
-    <row r="185" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="45"/>
       <c r="B185" s="45"/>
       <c r="C185" s="45"/>
@@ -7341,7 +7341,7 @@
       <c r="E185" s="71"/>
       <c r="F185" s="21"/>
     </row>
-    <row r="186" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="45"/>
       <c r="B186" s="45"/>
       <c r="C186" s="45"/>
@@ -7349,7 +7349,7 @@
       <c r="E186" s="71"/>
       <c r="F186" s="21"/>
     </row>
-    <row r="187" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="45"/>
       <c r="B187" s="45"/>
       <c r="C187" s="45"/>
@@ -7357,7 +7357,7 @@
       <c r="E187" s="71"/>
       <c r="F187" s="21"/>
     </row>
-    <row r="188" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="45"/>
       <c r="B188" s="45"/>
       <c r="C188" s="45"/>
@@ -7365,7 +7365,7 @@
       <c r="E188" s="71"/>
       <c r="F188" s="21"/>
     </row>
-    <row r="189" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="45"/>
       <c r="B189" s="45"/>
       <c r="C189" s="45"/>
@@ -7373,7 +7373,7 @@
       <c r="E189" s="71"/>
       <c r="F189" s="21"/>
     </row>
-    <row r="190" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="45"/>
       <c r="B190" s="45"/>
       <c r="C190" s="45"/>
@@ -7381,7 +7381,7 @@
       <c r="E190" s="71"/>
       <c r="F190" s="21"/>
     </row>
-    <row r="191" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="45"/>
       <c r="B191" s="45"/>
       <c r="C191" s="45"/>
@@ -7389,7 +7389,7 @@
       <c r="E191" s="71"/>
       <c r="F191" s="21"/>
     </row>
-    <row r="192" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="45"/>
       <c r="B192" s="45"/>
       <c r="C192" s="45"/>
@@ -7397,7 +7397,7 @@
       <c r="E192" s="71"/>
       <c r="F192" s="21"/>
     </row>
-    <row r="193" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="45"/>
       <c r="B193" s="45"/>
       <c r="C193" s="45"/>
@@ -7405,7 +7405,7 @@
       <c r="E193" s="71"/>
       <c r="F193" s="21"/>
     </row>
-    <row r="194" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="45"/>
       <c r="B194" s="45"/>
       <c r="C194" s="45"/>
@@ -7413,7 +7413,7 @@
       <c r="E194" s="71"/>
       <c r="F194" s="21"/>
     </row>
-    <row r="195" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="45"/>
       <c r="B195" s="45"/>
       <c r="C195" s="45"/>
@@ -7421,7 +7421,7 @@
       <c r="E195" s="71"/>
       <c r="F195" s="21"/>
     </row>
-    <row r="196" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="45"/>
       <c r="B196" s="45"/>
       <c r="C196" s="45"/>
@@ -7429,7 +7429,7 @@
       <c r="E196" s="71"/>
       <c r="F196" s="21"/>
     </row>
-    <row r="197" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="45"/>
       <c r="B197" s="45"/>
       <c r="C197" s="45"/>
@@ -7437,7 +7437,7 @@
       <c r="E197" s="71"/>
       <c r="F197" s="21"/>
     </row>
-    <row r="198" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="45"/>
       <c r="B198" s="45"/>
       <c r="C198" s="45"/>
@@ -7445,7 +7445,7 @@
       <c r="E198" s="71"/>
       <c r="F198" s="21"/>
     </row>
-    <row r="199" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="45"/>
       <c r="B199" s="45"/>
       <c r="C199" s="45"/>
@@ -7453,7 +7453,7 @@
       <c r="E199" s="71"/>
       <c r="F199" s="21"/>
     </row>
-    <row r="200" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="45"/>
       <c r="B200" s="45"/>
       <c r="C200" s="45"/>
@@ -7461,7 +7461,7 @@
       <c r="E200" s="71"/>
       <c r="F200" s="21"/>
     </row>
-    <row r="201" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="45"/>
       <c r="B201" s="45"/>
       <c r="C201" s="45"/>
@@ -7469,7 +7469,7 @@
       <c r="E201" s="71"/>
       <c r="F201" s="21"/>
     </row>
-    <row r="202" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="45"/>
       <c r="B202" s="45"/>
       <c r="C202" s="45"/>
@@ -7477,7 +7477,7 @@
       <c r="E202" s="71"/>
       <c r="F202" s="21"/>
     </row>
-    <row r="203" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="45"/>
       <c r="B203" s="45"/>
       <c r="C203" s="45"/>
@@ -7485,7 +7485,7 @@
       <c r="E203" s="71"/>
       <c r="F203" s="21"/>
     </row>
-    <row r="204" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="45"/>
       <c r="B204" s="45"/>
       <c r="C204" s="45"/>
@@ -7493,7 +7493,7 @@
       <c r="E204" s="71"/>
       <c r="F204" s="21"/>
     </row>
-    <row r="205" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="45"/>
       <c r="B205" s="45"/>
       <c r="C205" s="45"/>
@@ -7501,7 +7501,7 @@
       <c r="E205" s="71"/>
       <c r="F205" s="21"/>
     </row>
-    <row r="206" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="45"/>
       <c r="B206" s="45"/>
       <c r="C206" s="45"/>
@@ -7509,7 +7509,7 @@
       <c r="E206" s="71"/>
       <c r="F206" s="21"/>
     </row>
-    <row r="207" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="45"/>
       <c r="B207" s="45"/>
       <c r="C207" s="45"/>
@@ -7517,7 +7517,7 @@
       <c r="E207" s="71"/>
       <c r="F207" s="21"/>
     </row>
-    <row r="208" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="45"/>
       <c r="B208" s="45"/>
       <c r="C208" s="45"/>
@@ -7525,7 +7525,7 @@
       <c r="E208" s="71"/>
       <c r="F208" s="21"/>
     </row>
-    <row r="209" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="45"/>
       <c r="B209" s="45"/>
       <c r="C209" s="45"/>
@@ -7533,7 +7533,7 @@
       <c r="E209" s="71"/>
       <c r="F209" s="21"/>
     </row>
-    <row r="210" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="45"/>
       <c r="B210" s="45"/>
       <c r="C210" s="45"/>
@@ -7541,7 +7541,7 @@
       <c r="E210" s="71"/>
       <c r="F210" s="21"/>
     </row>
-    <row r="211" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="45"/>
       <c r="B211" s="45"/>
       <c r="C211" s="45"/>
@@ -7549,7 +7549,7 @@
       <c r="E211" s="71"/>
       <c r="F211" s="21"/>
     </row>
-    <row r="212" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="45"/>
       <c r="B212" s="45"/>
       <c r="C212" s="45"/>
@@ -7557,7 +7557,7 @@
       <c r="E212" s="71"/>
       <c r="F212" s="21"/>
     </row>
-    <row r="213" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="45"/>
       <c r="B213" s="45"/>
       <c r="C213" s="45"/>
@@ -7565,7 +7565,7 @@
       <c r="E213" s="71"/>
       <c r="F213" s="21"/>
     </row>
-    <row r="214" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="45"/>
       <c r="B214" s="45"/>
       <c r="C214" s="45"/>
@@ -7573,7 +7573,7 @@
       <c r="E214" s="71"/>
       <c r="F214" s="21"/>
     </row>
-    <row r="215" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="45"/>
       <c r="B215" s="45"/>
       <c r="C215" s="45"/>
@@ -7581,7 +7581,7 @@
       <c r="E215" s="71"/>
       <c r="F215" s="21"/>
     </row>
-    <row r="216" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="45"/>
       <c r="B216" s="45"/>
       <c r="C216" s="45"/>
@@ -7589,7 +7589,7 @@
       <c r="E216" s="71"/>
       <c r="F216" s="21"/>
     </row>
-    <row r="217" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="45"/>
       <c r="B217" s="45"/>
       <c r="C217" s="45"/>
@@ -7597,7 +7597,7 @@
       <c r="E217" s="71"/>
       <c r="F217" s="21"/>
     </row>
-    <row r="218" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="45"/>
       <c r="B218" s="45"/>
       <c r="C218" s="45"/>
@@ -7605,7 +7605,7 @@
       <c r="E218" s="71"/>
       <c r="F218" s="21"/>
     </row>
-    <row r="219" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="45"/>
       <c r="B219" s="45"/>
       <c r="C219" s="45"/>
@@ -7613,7 +7613,7 @@
       <c r="E219" s="71"/>
       <c r="F219" s="21"/>
     </row>
-    <row r="220" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="45"/>
       <c r="B220" s="45"/>
       <c r="C220" s="45"/>
@@ -7621,7 +7621,7 @@
       <c r="E220" s="71"/>
       <c r="F220" s="21"/>
     </row>
-    <row r="221" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="45"/>
       <c r="B221" s="45"/>
       <c r="C221" s="45"/>
@@ -7629,7 +7629,7 @@
       <c r="E221" s="71"/>
       <c r="F221" s="21"/>
     </row>
-    <row r="222" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="45"/>
       <c r="B222" s="45"/>
       <c r="C222" s="45"/>
@@ -7637,7 +7637,7 @@
       <c r="E222" s="71"/>
       <c r="F222" s="21"/>
     </row>
-    <row r="223" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="45"/>
       <c r="B223" s="45"/>
       <c r="C223" s="45"/>
@@ -7645,7 +7645,7 @@
       <c r="E223" s="71"/>
       <c r="F223" s="21"/>
     </row>
-    <row r="224" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="45"/>
       <c r="B224" s="45"/>
       <c r="C224" s="45"/>
@@ -7653,7 +7653,7 @@
       <c r="E224" s="71"/>
       <c r="F224" s="21"/>
     </row>
-    <row r="225" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="45"/>
       <c r="B225" s="45"/>
       <c r="C225" s="45"/>
@@ -7661,7 +7661,7 @@
       <c r="E225" s="71"/>
       <c r="F225" s="21"/>
     </row>
-    <row r="226" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="45"/>
       <c r="B226" s="45"/>
       <c r="C226" s="45"/>
@@ -7669,7 +7669,7 @@
       <c r="E226" s="71"/>
       <c r="F226" s="21"/>
     </row>
-    <row r="227" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="45"/>
       <c r="B227" s="45"/>
       <c r="C227" s="45"/>
@@ -7677,7 +7677,7 @@
       <c r="E227" s="71"/>
       <c r="F227" s="21"/>
     </row>
-    <row r="228" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="45"/>
       <c r="B228" s="45"/>
       <c r="C228" s="45"/>
@@ -7685,7 +7685,7 @@
       <c r="E228" s="71"/>
       <c r="F228" s="21"/>
     </row>
-    <row r="229" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="45"/>
       <c r="B229" s="45"/>
       <c r="C229" s="45"/>
@@ -7693,7 +7693,7 @@
       <c r="E229" s="71"/>
       <c r="F229" s="21"/>
     </row>
-    <row r="230" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="45"/>
       <c r="B230" s="45"/>
       <c r="C230" s="45"/>
@@ -7701,7 +7701,7 @@
       <c r="E230" s="71"/>
       <c r="F230" s="21"/>
     </row>
-    <row r="231" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="45"/>
       <c r="B231" s="45"/>
       <c r="C231" s="45"/>
@@ -7709,7 +7709,7 @@
       <c r="E231" s="71"/>
       <c r="F231" s="21"/>
     </row>
-    <row r="232" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="45"/>
       <c r="B232" s="45"/>
       <c r="C232" s="45"/>
@@ -7717,7 +7717,7 @@
       <c r="E232" s="71"/>
       <c r="F232" s="21"/>
     </row>
-    <row r="233" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="45"/>
       <c r="B233" s="45"/>
       <c r="C233" s="45"/>
@@ -7725,7 +7725,7 @@
       <c r="E233" s="71"/>
       <c r="F233" s="21"/>
     </row>
-    <row r="234" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="45"/>
       <c r="B234" s="45"/>
       <c r="C234" s="45"/>
@@ -7733,7 +7733,7 @@
       <c r="E234" s="71"/>
       <c r="F234" s="21"/>
     </row>
-    <row r="235" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="45"/>
       <c r="B235" s="45"/>
       <c r="C235" s="45"/>
@@ -7741,7 +7741,7 @@
       <c r="E235" s="71"/>
       <c r="F235" s="21"/>
     </row>
-    <row r="236" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="45"/>
       <c r="B236" s="45"/>
       <c r="C236" s="45"/>
@@ -7749,7 +7749,7 @@
       <c r="E236" s="71"/>
       <c r="F236" s="21"/>
     </row>
-    <row r="237" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="45"/>
       <c r="B237" s="45"/>
       <c r="C237" s="45"/>
@@ -7757,7 +7757,7 @@
       <c r="E237" s="71"/>
       <c r="F237" s="21"/>
     </row>
-    <row r="238" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="45"/>
       <c r="B238" s="45"/>
       <c r="C238" s="45"/>
@@ -7765,7 +7765,7 @@
       <c r="E238" s="71"/>
       <c r="F238" s="21"/>
     </row>
-    <row r="239" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="45"/>
       <c r="B239" s="45"/>
       <c r="C239" s="45"/>
@@ -7773,7 +7773,7 @@
       <c r="E239" s="71"/>
       <c r="F239" s="21"/>
     </row>
-    <row r="240" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="45"/>
       <c r="B240" s="45"/>
       <c r="C240" s="45"/>
@@ -7781,7 +7781,7 @@
       <c r="E240" s="71"/>
       <c r="F240" s="21"/>
     </row>
-    <row r="241" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="45"/>
       <c r="B241" s="45"/>
       <c r="C241" s="45"/>
@@ -7789,7 +7789,7 @@
       <c r="E241" s="71"/>
       <c r="F241" s="21"/>
     </row>
-    <row r="242" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="45"/>
       <c r="B242" s="45"/>
       <c r="C242" s="45"/>
@@ -7797,7 +7797,7 @@
       <c r="E242" s="71"/>
       <c r="F242" s="21"/>
     </row>
-    <row r="243" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="45"/>
       <c r="B243" s="45"/>
       <c r="C243" s="45"/>
@@ -7805,7 +7805,7 @@
       <c r="E243" s="71"/>
       <c r="F243" s="21"/>
     </row>
-    <row r="244" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="45"/>
       <c r="B244" s="45"/>
       <c r="C244" s="45"/>
@@ -7813,7 +7813,7 @@
       <c r="E244" s="71"/>
       <c r="F244" s="21"/>
     </row>
-    <row r="245" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="45"/>
       <c r="B245" s="45"/>
       <c r="C245" s="45"/>
@@ -7821,7 +7821,7 @@
       <c r="E245" s="71"/>
       <c r="F245" s="21"/>
     </row>
-    <row r="246" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="45"/>
       <c r="B246" s="45"/>
       <c r="C246" s="45"/>
@@ -7829,7 +7829,7 @@
       <c r="E246" s="71"/>
       <c r="F246" s="21"/>
     </row>
-    <row r="247" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="45"/>
       <c r="B247" s="45"/>
       <c r="C247" s="45"/>
@@ -7837,7 +7837,7 @@
       <c r="E247" s="71"/>
       <c r="F247" s="21"/>
     </row>
-    <row r="248" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="45"/>
       <c r="B248" s="45"/>
       <c r="C248" s="45"/>
@@ -7845,7 +7845,7 @@
       <c r="E248" s="71"/>
       <c r="F248" s="21"/>
     </row>
-    <row r="249" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="45"/>
       <c r="B249" s="45"/>
       <c r="C249" s="45"/>
@@ -7853,7 +7853,7 @@
       <c r="E249" s="71"/>
       <c r="F249" s="21"/>
     </row>
-    <row r="250" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="45"/>
       <c r="B250" s="45"/>
       <c r="C250" s="45"/>
@@ -7861,7 +7861,7 @@
       <c r="E250" s="71"/>
       <c r="F250" s="21"/>
     </row>
-    <row r="251" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="45"/>
       <c r="B251" s="45"/>
       <c r="C251" s="45"/>
@@ -7869,7 +7869,7 @@
       <c r="E251" s="71"/>
       <c r="F251" s="21"/>
     </row>
-    <row r="252" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="45"/>
       <c r="B252" s="45"/>
       <c r="C252" s="45"/>
@@ -7877,7 +7877,7 @@
       <c r="E252" s="71"/>
       <c r="F252" s="21"/>
     </row>
-    <row r="253" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="45"/>
       <c r="B253" s="45"/>
       <c r="C253" s="45"/>
@@ -7885,7 +7885,7 @@
       <c r="E253" s="71"/>
       <c r="F253" s="21"/>
     </row>
-    <row r="254" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="45"/>
       <c r="B254" s="45"/>
       <c r="C254" s="45"/>
@@ -7893,7 +7893,7 @@
       <c r="E254" s="71"/>
       <c r="F254" s="21"/>
     </row>
-    <row r="255" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="45"/>
       <c r="B255" s="45"/>
       <c r="C255" s="45"/>
@@ -7901,7 +7901,7 @@
       <c r="E255" s="71"/>
       <c r="F255" s="21"/>
     </row>
-    <row r="256" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="45"/>
       <c r="B256" s="45"/>
       <c r="C256" s="45"/>
@@ -7909,7 +7909,7 @@
       <c r="E256" s="71"/>
       <c r="F256" s="21"/>
     </row>
-    <row r="257" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="45"/>
       <c r="B257" s="45"/>
       <c r="C257" s="45"/>
@@ -7917,7 +7917,7 @@
       <c r="E257" s="71"/>
       <c r="F257" s="21"/>
     </row>
-    <row r="258" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="45"/>
       <c r="B258" s="45"/>
       <c r="C258" s="45"/>
@@ -7925,7 +7925,7 @@
       <c r="E258" s="71"/>
       <c r="F258" s="21"/>
     </row>
-    <row r="259" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="45"/>
       <c r="B259" s="45"/>
       <c r="C259" s="45"/>
@@ -7933,7 +7933,7 @@
       <c r="E259" s="71"/>
       <c r="F259" s="21"/>
     </row>
-    <row r="260" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="45"/>
       <c r="B260" s="45"/>
       <c r="C260" s="45"/>
@@ -7941,7 +7941,7 @@
       <c r="E260" s="71"/>
       <c r="F260" s="21"/>
     </row>
-    <row r="261" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="45"/>
       <c r="B261" s="45"/>
       <c r="C261" s="45"/>
@@ -7949,7 +7949,7 @@
       <c r="E261" s="71"/>
       <c r="F261" s="21"/>
     </row>
-    <row r="262" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="45"/>
       <c r="B262" s="45"/>
       <c r="C262" s="45"/>
@@ -7957,7 +7957,7 @@
       <c r="E262" s="71"/>
       <c r="F262" s="21"/>
     </row>
-    <row r="263" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="45"/>
       <c r="B263" s="45"/>
       <c r="C263" s="45"/>
@@ -7965,7 +7965,7 @@
       <c r="E263" s="71"/>
       <c r="F263" s="21"/>
     </row>
-    <row r="264" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="45"/>
       <c r="B264" s="45"/>
       <c r="C264" s="45"/>
@@ -7973,7 +7973,7 @@
       <c r="E264" s="71"/>
       <c r="F264" s="21"/>
     </row>
-    <row r="265" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="45"/>
       <c r="B265" s="45"/>
       <c r="C265" s="45"/>
@@ -7981,7 +7981,7 @@
       <c r="E265" s="71"/>
       <c r="F265" s="21"/>
     </row>
-    <row r="266" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="45"/>
       <c r="B266" s="45"/>
       <c r="C266" s="45"/>
@@ -7989,7 +7989,7 @@
       <c r="E266" s="71"/>
       <c r="F266" s="21"/>
     </row>
-    <row r="267" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="45"/>
       <c r="B267" s="45"/>
       <c r="C267" s="45"/>
@@ -7997,7 +7997,7 @@
       <c r="E267" s="71"/>
       <c r="F267" s="21"/>
     </row>
-    <row r="268" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="45"/>
       <c r="B268" s="45"/>
       <c r="C268" s="45"/>
@@ -8005,7 +8005,7 @@
       <c r="E268" s="71"/>
       <c r="F268" s="21"/>
     </row>
-    <row r="269" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="45"/>
       <c r="B269" s="45"/>
       <c r="C269" s="45"/>
@@ -8013,7 +8013,7 @@
       <c r="E269" s="71"/>
       <c r="F269" s="21"/>
     </row>
-    <row r="270" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="45"/>
       <c r="B270" s="45"/>
       <c r="C270" s="45"/>
@@ -8021,7 +8021,7 @@
       <c r="E270" s="71"/>
       <c r="F270" s="21"/>
     </row>
-    <row r="271" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="45"/>
       <c r="B271" s="45"/>
       <c r="C271" s="45"/>
@@ -8029,7 +8029,7 @@
       <c r="E271" s="71"/>
       <c r="F271" s="21"/>
     </row>
-    <row r="272" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="45"/>
       <c r="B272" s="45"/>
       <c r="C272" s="45"/>
@@ -8037,7 +8037,7 @@
       <c r="E272" s="71"/>
       <c r="F272" s="21"/>
     </row>
-    <row r="273" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="45"/>
       <c r="B273" s="45"/>
       <c r="C273" s="45"/>
@@ -8045,7 +8045,7 @@
       <c r="E273" s="71"/>
       <c r="F273" s="21"/>
     </row>
-    <row r="274" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="45"/>
       <c r="B274" s="45"/>
       <c r="C274" s="45"/>
@@ -8053,7 +8053,7 @@
       <c r="E274" s="71"/>
       <c r="F274" s="21"/>
     </row>
-    <row r="275" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="45"/>
       <c r="B275" s="45"/>
       <c r="C275" s="45"/>
@@ -8061,7 +8061,7 @@
       <c r="E275" s="71"/>
       <c r="F275" s="21"/>
     </row>
-    <row r="276" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="45"/>
       <c r="B276" s="45"/>
       <c r="C276" s="45"/>
@@ -8069,7 +8069,7 @@
       <c r="E276" s="71"/>
       <c r="F276" s="21"/>
     </row>
-    <row r="277" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="45"/>
       <c r="B277" s="45"/>
       <c r="C277" s="45"/>
@@ -8077,7 +8077,7 @@
       <c r="E277" s="71"/>
       <c r="F277" s="21"/>
     </row>
-    <row r="278" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="45"/>
       <c r="B278" s="45"/>
       <c r="C278" s="45"/>
@@ -8085,7 +8085,7 @@
       <c r="E278" s="71"/>
       <c r="F278" s="21"/>
     </row>
-    <row r="279" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="45"/>
       <c r="B279" s="45"/>
       <c r="C279" s="45"/>
@@ -8093,7 +8093,7 @@
       <c r="E279" s="71"/>
       <c r="F279" s="21"/>
     </row>
-    <row r="280" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="45"/>
       <c r="B280" s="45"/>
       <c r="C280" s="45"/>
@@ -8101,7 +8101,7 @@
       <c r="E280" s="71"/>
       <c r="F280" s="21"/>
     </row>
-    <row r="281" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="45"/>
       <c r="B281" s="45"/>
       <c r="C281" s="45"/>
@@ -8109,7 +8109,7 @@
       <c r="E281" s="71"/>
       <c r="F281" s="21"/>
     </row>
-    <row r="282" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="45"/>
       <c r="B282" s="45"/>
       <c r="C282" s="45"/>
@@ -8117,7 +8117,7 @@
       <c r="E282" s="71"/>
       <c r="F282" s="21"/>
     </row>
-    <row r="283" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="45"/>
       <c r="B283" s="45"/>
       <c r="C283" s="45"/>
@@ -8125,7 +8125,7 @@
       <c r="E283" s="71"/>
       <c r="F283" s="21"/>
     </row>
-    <row r="284" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="45"/>
       <c r="B284" s="45"/>
       <c r="C284" s="45"/>
@@ -8133,7 +8133,7 @@
       <c r="E284" s="71"/>
       <c r="F284" s="21"/>
     </row>
-    <row r="285" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="45"/>
       <c r="B285" s="45"/>
       <c r="C285" s="45"/>
@@ -8141,7 +8141,7 @@
       <c r="E285" s="71"/>
       <c r="F285" s="21"/>
     </row>
-    <row r="286" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="45"/>
       <c r="B286" s="45"/>
       <c r="C286" s="45"/>
@@ -8149,7 +8149,7 @@
       <c r="E286" s="71"/>
       <c r="F286" s="21"/>
     </row>
-    <row r="287" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="45"/>
       <c r="B287" s="45"/>
       <c r="C287" s="45"/>
@@ -8157,7 +8157,7 @@
       <c r="E287" s="71"/>
       <c r="F287" s="21"/>
     </row>
-    <row r="288" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="45"/>
       <c r="B288" s="45"/>
       <c r="C288" s="45"/>
@@ -8165,7 +8165,7 @@
       <c r="E288" s="71"/>
       <c r="F288" s="21"/>
     </row>
-    <row r="289" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="45"/>
       <c r="B289" s="45"/>
       <c r="C289" s="45"/>
@@ -8173,7 +8173,7 @@
       <c r="E289" s="71"/>
       <c r="F289" s="21"/>
     </row>
-    <row r="290" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="45"/>
       <c r="B290" s="45"/>
       <c r="C290" s="45"/>
@@ -8181,7 +8181,7 @@
       <c r="E290" s="71"/>
       <c r="F290" s="21"/>
     </row>
-    <row r="291" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="45"/>
       <c r="B291" s="45"/>
       <c r="C291" s="45"/>
@@ -8189,7 +8189,7 @@
       <c r="E291" s="71"/>
       <c r="F291" s="21"/>
     </row>
-    <row r="292" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="45"/>
       <c r="B292" s="45"/>
       <c r="C292" s="45"/>
@@ -8197,7 +8197,7 @@
       <c r="E292" s="71"/>
       <c r="F292" s="21"/>
     </row>
-    <row r="293" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="45"/>
       <c r="B293" s="45"/>
       <c r="C293" s="45"/>
@@ -8205,7 +8205,7 @@
       <c r="E293" s="71"/>
       <c r="F293" s="21"/>
     </row>
-    <row r="294" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="45"/>
       <c r="B294" s="45"/>
       <c r="C294" s="45"/>
@@ -8213,7 +8213,7 @@
       <c r="E294" s="71"/>
       <c r="F294" s="21"/>
     </row>
-    <row r="295" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="45"/>
       <c r="B295" s="45"/>
       <c r="C295" s="45"/>
@@ -8221,7 +8221,7 @@
       <c r="E295" s="71"/>
       <c r="F295" s="21"/>
     </row>
-    <row r="296" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="45"/>
       <c r="B296" s="45"/>
       <c r="C296" s="45"/>
@@ -8229,7 +8229,7 @@
       <c r="E296" s="71"/>
       <c r="F296" s="21"/>
     </row>
-    <row r="297" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="45"/>
       <c r="B297" s="45"/>
       <c r="C297" s="45"/>
@@ -8237,7 +8237,7 @@
       <c r="E297" s="71"/>
       <c r="F297" s="21"/>
     </row>
-    <row r="298" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="45"/>
       <c r="B298" s="45"/>
       <c r="C298" s="45"/>
@@ -8245,7 +8245,7 @@
       <c r="E298" s="71"/>
       <c r="F298" s="21"/>
     </row>
-    <row r="299" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="45"/>
       <c r="B299" s="45"/>
       <c r="C299" s="45"/>
@@ -8253,7 +8253,7 @@
       <c r="E299" s="71"/>
       <c r="F299" s="21"/>
     </row>
-    <row r="300" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="45"/>
       <c r="B300" s="45"/>
       <c r="C300" s="45"/>
@@ -8261,7 +8261,7 @@
       <c r="E300" s="71"/>
       <c r="F300" s="21"/>
     </row>
-    <row r="301" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="45"/>
       <c r="B301" s="45"/>
       <c r="C301" s="45"/>
@@ -8269,7 +8269,7 @@
       <c r="E301" s="71"/>
       <c r="F301" s="21"/>
     </row>
-    <row r="302" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="45"/>
       <c r="B302" s="45"/>
       <c r="C302" s="45"/>
@@ -8277,7 +8277,7 @@
       <c r="E302" s="71"/>
       <c r="F302" s="21"/>
     </row>
-    <row r="303" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="45"/>
       <c r="B303" s="45"/>
       <c r="C303" s="45"/>
@@ -8285,7 +8285,7 @@
       <c r="E303" s="71"/>
       <c r="F303" s="21"/>
     </row>
-    <row r="304" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="45"/>
       <c r="B304" s="45"/>
       <c r="C304" s="45"/>
@@ -8293,7 +8293,7 @@
       <c r="E304" s="71"/>
       <c r="F304" s="21"/>
     </row>
-    <row r="305" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="45"/>
       <c r="B305" s="45"/>
       <c r="C305" s="45"/>
@@ -8301,7 +8301,7 @@
       <c r="E305" s="71"/>
       <c r="F305" s="21"/>
     </row>
-    <row r="306" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="45"/>
       <c r="B306" s="45"/>
       <c r="C306" s="45"/>
@@ -8309,7 +8309,7 @@
       <c r="E306" s="71"/>
       <c r="F306" s="21"/>
     </row>
-    <row r="307" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="45"/>
       <c r="B307" s="45"/>
       <c r="C307" s="45"/>
@@ -8317,7 +8317,7 @@
       <c r="E307" s="71"/>
       <c r="F307" s="21"/>
     </row>
-    <row r="308" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="45"/>
       <c r="B308" s="45"/>
       <c r="C308" s="45"/>
@@ -8325,7 +8325,7 @@
       <c r="E308" s="71"/>
       <c r="F308" s="21"/>
     </row>
-    <row r="309" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="45"/>
       <c r="B309" s="45"/>
       <c r="C309" s="45"/>
@@ -8333,7 +8333,7 @@
       <c r="E309" s="71"/>
       <c r="F309" s="21"/>
     </row>
-    <row r="310" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="45"/>
       <c r="B310" s="45"/>
       <c r="C310" s="45"/>
@@ -8341,7 +8341,7 @@
       <c r="E310" s="71"/>
       <c r="F310" s="21"/>
     </row>
-    <row r="311" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="45"/>
       <c r="B311" s="45"/>
       <c r="C311" s="45"/>
@@ -8349,7 +8349,7 @@
       <c r="E311" s="71"/>
       <c r="F311" s="21"/>
     </row>
-    <row r="312" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="45"/>
       <c r="B312" s="45"/>
       <c r="C312" s="45"/>
@@ -8357,7 +8357,7 @@
       <c r="E312" s="71"/>
       <c r="F312" s="21"/>
     </row>
-    <row r="313" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="45"/>
       <c r="B313" s="45"/>
       <c r="C313" s="45"/>
@@ -8365,7 +8365,7 @@
       <c r="E313" s="71"/>
       <c r="F313" s="21"/>
     </row>
-    <row r="314" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="45"/>
       <c r="B314" s="45"/>
       <c r="C314" s="45"/>
@@ -8373,7 +8373,7 @@
       <c r="E314" s="71"/>
       <c r="F314" s="21"/>
     </row>
-    <row r="315" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="45"/>
       <c r="B315" s="45"/>
       <c r="C315" s="45"/>
@@ -8381,7 +8381,7 @@
       <c r="E315" s="71"/>
       <c r="F315" s="21"/>
     </row>
-    <row r="316" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="45"/>
       <c r="B316" s="45"/>
       <c r="C316" s="45"/>
@@ -8389,7 +8389,7 @@
       <c r="E316" s="71"/>
       <c r="F316" s="21"/>
     </row>
-    <row r="317" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="45"/>
       <c r="B317" s="45"/>
       <c r="C317" s="45"/>
@@ -8397,7 +8397,7 @@
       <c r="E317" s="71"/>
       <c r="F317" s="21"/>
     </row>
-    <row r="318" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="45"/>
       <c r="B318" s="45"/>
       <c r="C318" s="45"/>
@@ -8405,7 +8405,7 @@
       <c r="E318" s="71"/>
       <c r="F318" s="21"/>
     </row>
-    <row r="319" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="45"/>
       <c r="B319" s="45"/>
       <c r="C319" s="45"/>
@@ -8413,7 +8413,7 @@
       <c r="E319" s="71"/>
       <c r="F319" s="21"/>
     </row>
-    <row r="320" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="45"/>
       <c r="B320" s="45"/>
       <c r="C320" s="45"/>
@@ -8421,7 +8421,7 @@
       <c r="E320" s="71"/>
       <c r="F320" s="21"/>
     </row>
-    <row r="321" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="45"/>
       <c r="B321" s="45"/>
       <c r="C321" s="45"/>
@@ -8429,7 +8429,7 @@
       <c r="E321" s="71"/>
       <c r="F321" s="21"/>
     </row>
-    <row r="322" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="45"/>
       <c r="B322" s="45"/>
       <c r="C322" s="45"/>
@@ -8437,7 +8437,7 @@
       <c r="E322" s="71"/>
       <c r="F322" s="21"/>
     </row>
-    <row r="323" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="45"/>
       <c r="B323" s="45"/>
       <c r="C323" s="45"/>
@@ -8445,7 +8445,7 @@
       <c r="E323" s="71"/>
       <c r="F323" s="21"/>
     </row>
-    <row r="324" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="45"/>
       <c r="B324" s="45"/>
       <c r="C324" s="45"/>
@@ -8453,7 +8453,7 @@
       <c r="E324" s="71"/>
       <c r="F324" s="21"/>
     </row>
-    <row r="325" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="45"/>
       <c r="B325" s="45"/>
       <c r="C325" s="45"/>
@@ -8461,7 +8461,7 @@
       <c r="E325" s="71"/>
       <c r="F325" s="21"/>
     </row>
-    <row r="326" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="45"/>
       <c r="B326" s="45"/>
       <c r="C326" s="45"/>
@@ -8469,7 +8469,7 @@
       <c r="E326" s="71"/>
       <c r="F326" s="21"/>
     </row>
-    <row r="327" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="45"/>
       <c r="B327" s="45"/>
       <c r="C327" s="45"/>
@@ -8477,7 +8477,7 @@
       <c r="E327" s="71"/>
       <c r="F327" s="21"/>
     </row>
-    <row r="328" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="45"/>
       <c r="B328" s="45"/>
       <c r="C328" s="45"/>
@@ -8485,7 +8485,7 @@
       <c r="E328" s="71"/>
       <c r="F328" s="21"/>
     </row>
-    <row r="329" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="45"/>
       <c r="B329" s="45"/>
       <c r="C329" s="45"/>
@@ -8493,7 +8493,7 @@
       <c r="E329" s="71"/>
       <c r="F329" s="21"/>
     </row>
-    <row r="330" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="45"/>
       <c r="B330" s="45"/>
       <c r="C330" s="45"/>
@@ -8501,7 +8501,7 @@
       <c r="E330" s="71"/>
       <c r="F330" s="21"/>
     </row>
-    <row r="331" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="45"/>
       <c r="B331" s="45"/>
       <c r="C331" s="45"/>
@@ -8509,7 +8509,7 @@
       <c r="E331" s="71"/>
       <c r="F331" s="21"/>
     </row>
-    <row r="332" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="45"/>
       <c r="B332" s="45"/>
       <c r="C332" s="45"/>
@@ -8517,7 +8517,7 @@
       <c r="E332" s="71"/>
       <c r="F332" s="21"/>
     </row>
-    <row r="333" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="45"/>
       <c r="B333" s="45"/>
       <c r="C333" s="45"/>
@@ -8525,7 +8525,7 @@
       <c r="E333" s="71"/>
       <c r="F333" s="21"/>
     </row>
-    <row r="334" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="45"/>
       <c r="B334" s="45"/>
       <c r="C334" s="45"/>
@@ -8533,7 +8533,7 @@
       <c r="E334" s="71"/>
       <c r="F334" s="21"/>
     </row>
-    <row r="335" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="45"/>
       <c r="B335" s="45"/>
       <c r="C335" s="45"/>
@@ -8541,7 +8541,7 @@
       <c r="E335" s="71"/>
       <c r="F335" s="21"/>
     </row>
-    <row r="336" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="45"/>
       <c r="B336" s="45"/>
       <c r="C336" s="45"/>
@@ -8549,7 +8549,7 @@
       <c r="E336" s="71"/>
       <c r="F336" s="21"/>
     </row>
-    <row r="337" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="45"/>
       <c r="B337" s="45"/>
       <c r="C337" s="45"/>
@@ -8557,7 +8557,7 @@
       <c r="E337" s="71"/>
       <c r="F337" s="21"/>
     </row>
-    <row r="338" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="45"/>
       <c r="B338" s="45"/>
       <c r="C338" s="45"/>
@@ -8565,7 +8565,7 @@
       <c r="E338" s="71"/>
       <c r="F338" s="21"/>
     </row>
-    <row r="339" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="45"/>
       <c r="B339" s="45"/>
       <c r="C339" s="45"/>
@@ -8573,7 +8573,7 @@
       <c r="E339" s="71"/>
       <c r="F339" s="21"/>
     </row>
-    <row r="340" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="45"/>
       <c r="B340" s="45"/>
       <c r="C340" s="45"/>
@@ -8581,7 +8581,7 @@
       <c r="E340" s="71"/>
       <c r="F340" s="21"/>
     </row>
-    <row r="341" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="45"/>
       <c r="B341" s="45"/>
       <c r="C341" s="45"/>
@@ -8589,7 +8589,7 @@
       <c r="E341" s="71"/>
       <c r="F341" s="21"/>
     </row>
-    <row r="342" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="45"/>
       <c r="B342" s="45"/>
       <c r="C342" s="45"/>
@@ -8597,7 +8597,7 @@
       <c r="E342" s="71"/>
       <c r="F342" s="21"/>
     </row>
-    <row r="343" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="45"/>
       <c r="B343" s="45"/>
       <c r="C343" s="45"/>
@@ -8605,7 +8605,7 @@
       <c r="E343" s="71"/>
       <c r="F343" s="21"/>
     </row>
-    <row r="344" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="45"/>
       <c r="B344" s="45"/>
       <c r="C344" s="45"/>
@@ -8613,7 +8613,7 @@
       <c r="E344" s="71"/>
       <c r="F344" s="21"/>
     </row>
-    <row r="345" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="45"/>
       <c r="B345" s="45"/>
       <c r="C345" s="45"/>
@@ -8621,7 +8621,7 @@
       <c r="E345" s="71"/>
       <c r="F345" s="21"/>
     </row>
-    <row r="346" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="45"/>
       <c r="B346" s="45"/>
       <c r="C346" s="45"/>
@@ -8629,7 +8629,7 @@
       <c r="E346" s="71"/>
       <c r="F346" s="21"/>
     </row>
-    <row r="347" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="45"/>
       <c r="B347" s="45"/>
       <c r="C347" s="45"/>
@@ -8637,7 +8637,7 @@
       <c r="E347" s="71"/>
       <c r="F347" s="21"/>
     </row>
-    <row r="348" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="45"/>
       <c r="B348" s="45"/>
       <c r="C348" s="45"/>
@@ -8645,7 +8645,7 @@
       <c r="E348" s="71"/>
       <c r="F348" s="21"/>
     </row>
-    <row r="349" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="45"/>
       <c r="B349" s="45"/>
       <c r="C349" s="45"/>
@@ -8653,7 +8653,7 @@
       <c r="E349" s="71"/>
       <c r="F349" s="21"/>
     </row>
-    <row r="350" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="45"/>
       <c r="B350" s="45"/>
       <c r="C350" s="45"/>
@@ -8661,7 +8661,7 @@
       <c r="E350" s="71"/>
       <c r="F350" s="21"/>
     </row>
-    <row r="351" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="45"/>
       <c r="B351" s="45"/>
       <c r="C351" s="45"/>
@@ -8669,7 +8669,7 @@
       <c r="E351" s="71"/>
       <c r="F351" s="21"/>
     </row>
-    <row r="352" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="45"/>
       <c r="B352" s="45"/>
       <c r="C352" s="45"/>
@@ -8677,7 +8677,7 @@
       <c r="E352" s="71"/>
       <c r="F352" s="21"/>
     </row>
-    <row r="353" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="45"/>
       <c r="B353" s="45"/>
       <c r="C353" s="45"/>
@@ -8685,7 +8685,7 @@
       <c r="E353" s="71"/>
       <c r="F353" s="21"/>
     </row>
-    <row r="354" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" s="45"/>
       <c r="B354" s="45"/>
       <c r="C354" s="45"/>
@@ -8693,7 +8693,7 @@
       <c r="E354" s="71"/>
       <c r="F354" s="21"/>
     </row>
-    <row r="355" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355" s="45"/>
       <c r="B355" s="45"/>
       <c r="C355" s="45"/>
@@ -8701,7 +8701,7 @@
       <c r="E355" s="71"/>
       <c r="F355" s="21"/>
     </row>
-    <row r="356" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="45"/>
       <c r="B356" s="45"/>
       <c r="C356" s="45"/>
@@ -8709,7 +8709,7 @@
       <c r="E356" s="71"/>
       <c r="F356" s="21"/>
     </row>
-    <row r="357" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="45"/>
       <c r="B357" s="45"/>
       <c r="C357" s="45"/>
@@ -8717,7 +8717,7 @@
       <c r="E357" s="71"/>
       <c r="F357" s="21"/>
     </row>
-    <row r="358" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="45"/>
       <c r="B358" s="45"/>
       <c r="C358" s="45"/>
@@ -8725,7 +8725,7 @@
       <c r="E358" s="71"/>
       <c r="F358" s="21"/>
     </row>
-    <row r="359" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="45"/>
       <c r="B359" s="45"/>
       <c r="C359" s="45"/>
@@ -8733,7 +8733,7 @@
       <c r="E359" s="71"/>
       <c r="F359" s="21"/>
     </row>
-    <row r="360" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="45"/>
       <c r="B360" s="45"/>
       <c r="C360" s="45"/>
@@ -8741,7 +8741,7 @@
       <c r="E360" s="71"/>
       <c r="F360" s="21"/>
     </row>
-    <row r="361" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="45"/>
       <c r="B361" s="45"/>
       <c r="C361" s="45"/>
@@ -8749,7 +8749,7 @@
       <c r="E361" s="71"/>
       <c r="F361" s="21"/>
     </row>
-    <row r="362" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="45"/>
       <c r="B362" s="45"/>
       <c r="C362" s="45"/>
@@ -8757,7 +8757,7 @@
       <c r="E362" s="71"/>
       <c r="F362" s="21"/>
     </row>
-    <row r="363" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" s="45"/>
       <c r="B363" s="45"/>
       <c r="C363" s="45"/>
@@ -8765,7 +8765,7 @@
       <c r="E363" s="71"/>
       <c r="F363" s="21"/>
     </row>
-    <row r="364" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A364" s="45"/>
       <c r="B364" s="45"/>
       <c r="C364" s="45"/>
@@ -8773,7 +8773,7 @@
       <c r="E364" s="71"/>
       <c r="F364" s="21"/>
     </row>
-    <row r="365" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" s="45"/>
       <c r="B365" s="45"/>
       <c r="C365" s="45"/>
@@ -8781,7 +8781,7 @@
       <c r="E365" s="71"/>
       <c r="F365" s="21"/>
     </row>
-    <row r="366" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" s="45"/>
       <c r="B366" s="45"/>
       <c r="C366" s="45"/>
@@ -8789,7 +8789,7 @@
       <c r="E366" s="71"/>
       <c r="F366" s="21"/>
     </row>
-    <row r="367" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367" s="45"/>
       <c r="B367" s="45"/>
       <c r="C367" s="45"/>
@@ -8797,7 +8797,7 @@
       <c r="E367" s="71"/>
       <c r="F367" s="21"/>
     </row>
-    <row r="368" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368" s="45"/>
       <c r="B368" s="45"/>
       <c r="C368" s="45"/>
@@ -8805,7 +8805,7 @@
       <c r="E368" s="71"/>
       <c r="F368" s="21"/>
     </row>
-    <row r="369" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="45"/>
       <c r="B369" s="45"/>
       <c r="C369" s="45"/>
@@ -8813,7 +8813,7 @@
       <c r="E369" s="71"/>
       <c r="F369" s="21"/>
     </row>
-    <row r="370" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="45"/>
       <c r="B370" s="45"/>
       <c r="C370" s="45"/>
@@ -8821,7 +8821,7 @@
       <c r="E370" s="71"/>
       <c r="F370" s="21"/>
     </row>
-    <row r="371" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="45"/>
       <c r="B371" s="45"/>
       <c r="C371" s="45"/>
@@ -8829,7 +8829,7 @@
       <c r="E371" s="71"/>
       <c r="F371" s="21"/>
     </row>
-    <row r="372" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372" s="45"/>
       <c r="B372" s="45"/>
       <c r="C372" s="45"/>
@@ -8837,7 +8837,7 @@
       <c r="E372" s="71"/>
       <c r="F372" s="21"/>
     </row>
-    <row r="373" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373" s="45"/>
       <c r="B373" s="45"/>
       <c r="C373" s="45"/>
@@ -8845,7 +8845,7 @@
       <c r="E373" s="71"/>
       <c r="F373" s="21"/>
     </row>
-    <row r="374" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374" s="45"/>
       <c r="B374" s="45"/>
       <c r="C374" s="45"/>
@@ -8853,7 +8853,7 @@
       <c r="E374" s="71"/>
       <c r="F374" s="21"/>
     </row>
-    <row r="375" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A375" s="45"/>
       <c r="B375" s="45"/>
       <c r="C375" s="45"/>
@@ -8861,7 +8861,7 @@
       <c r="E375" s="71"/>
       <c r="F375" s="21"/>
     </row>
-    <row r="376" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A376" s="45"/>
       <c r="B376" s="45"/>
       <c r="C376" s="45"/>
@@ -8869,7 +8869,7 @@
       <c r="E376" s="71"/>
       <c r="F376" s="21"/>
     </row>
-    <row r="377" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A377" s="45"/>
       <c r="B377" s="45"/>
       <c r="C377" s="45"/>
@@ -8877,7 +8877,7 @@
       <c r="E377" s="71"/>
       <c r="F377" s="21"/>
     </row>
-    <row r="378" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A378" s="45"/>
       <c r="B378" s="45"/>
       <c r="C378" s="45"/>
@@ -8885,7 +8885,7 @@
       <c r="E378" s="71"/>
       <c r="F378" s="21"/>
     </row>
-    <row r="379" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A379" s="45"/>
       <c r="B379" s="45"/>
       <c r="C379" s="45"/>
@@ -8893,7 +8893,7 @@
       <c r="E379" s="71"/>
       <c r="F379" s="21"/>
     </row>
-    <row r="380" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A380" s="45"/>
       <c r="B380" s="45"/>
       <c r="C380" s="45"/>
@@ -8901,7 +8901,7 @@
       <c r="E380" s="71"/>
       <c r="F380" s="21"/>
     </row>
-    <row r="381" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A381" s="45"/>
       <c r="B381" s="45"/>
       <c r="C381" s="45"/>
@@ -8909,7 +8909,7 @@
       <c r="E381" s="71"/>
       <c r="F381" s="21"/>
     </row>
-    <row r="382" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A382" s="45"/>
       <c r="B382" s="45"/>
       <c r="C382" s="45"/>
@@ -8917,7 +8917,7 @@
       <c r="E382" s="71"/>
       <c r="F382" s="21"/>
     </row>
-    <row r="383" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="45"/>
       <c r="B383" s="45"/>
       <c r="C383" s="45"/>
@@ -8925,7 +8925,7 @@
       <c r="E383" s="71"/>
       <c r="F383" s="21"/>
     </row>
-    <row r="384" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="45"/>
       <c r="B384" s="45"/>
       <c r="C384" s="45"/>
@@ -8933,7 +8933,7 @@
       <c r="E384" s="71"/>
       <c r="F384" s="21"/>
     </row>
-    <row r="385" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385" s="45"/>
       <c r="B385" s="45"/>
       <c r="C385" s="45"/>
@@ -8941,7 +8941,7 @@
       <c r="E385" s="71"/>
       <c r="F385" s="21"/>
     </row>
-    <row r="386" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" s="45"/>
       <c r="B386" s="45"/>
       <c r="C386" s="45"/>
@@ -8949,7 +8949,7 @@
       <c r="E386" s="71"/>
       <c r="F386" s="21"/>
     </row>
-    <row r="387" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A387" s="45"/>
       <c r="B387" s="45"/>
       <c r="C387" s="45"/>
@@ -8957,7 +8957,7 @@
       <c r="E387" s="71"/>
       <c r="F387" s="21"/>
     </row>
-    <row r="388" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388" s="45"/>
       <c r="B388" s="45"/>
       <c r="C388" s="45"/>
@@ -8965,7 +8965,7 @@
       <c r="E388" s="71"/>
       <c r="F388" s="21"/>
     </row>
-    <row r="389" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A389" s="45"/>
       <c r="B389" s="45"/>
       <c r="C389" s="45"/>
@@ -8973,7 +8973,7 @@
       <c r="E389" s="71"/>
       <c r="F389" s="21"/>
     </row>
-    <row r="390" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="45"/>
       <c r="B390" s="45"/>
       <c r="C390" s="45"/>
@@ -8981,7 +8981,7 @@
       <c r="E390" s="71"/>
       <c r="F390" s="21"/>
     </row>
-    <row r="391" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" s="45"/>
       <c r="B391" s="45"/>
       <c r="C391" s="45"/>
@@ -8989,7 +8989,7 @@
       <c r="E391" s="71"/>
       <c r="F391" s="21"/>
     </row>
-    <row r="392" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A392" s="45"/>
       <c r="B392" s="45"/>
       <c r="C392" s="45"/>
@@ -8997,7 +8997,7 @@
       <c r="E392" s="71"/>
       <c r="F392" s="21"/>
     </row>
-    <row r="393" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="45"/>
       <c r="B393" s="45"/>
       <c r="C393" s="45"/>
@@ -9005,7 +9005,7 @@
       <c r="E393" s="71"/>
       <c r="F393" s="21"/>
     </row>
-    <row r="394" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394" s="45"/>
       <c r="B394" s="45"/>
       <c r="C394" s="45"/>
@@ -9013,7 +9013,7 @@
       <c r="E394" s="71"/>
       <c r="F394" s="21"/>
     </row>
-    <row r="395" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A395" s="45"/>
       <c r="B395" s="45"/>
       <c r="C395" s="45"/>
@@ -9021,7 +9021,7 @@
       <c r="E395" s="71"/>
       <c r="F395" s="21"/>
     </row>
-    <row r="396" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A396" s="45"/>
       <c r="B396" s="45"/>
       <c r="C396" s="45"/>
@@ -9029,7 +9029,7 @@
       <c r="E396" s="71"/>
       <c r="F396" s="21"/>
     </row>
-    <row r="397" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A397" s="45"/>
       <c r="B397" s="45"/>
       <c r="C397" s="45"/>
@@ -9037,7 +9037,7 @@
       <c r="E397" s="71"/>
       <c r="F397" s="21"/>
     </row>
-    <row r="398" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" s="45"/>
       <c r="B398" s="45"/>
       <c r="C398" s="45"/>
@@ -9045,7 +9045,7 @@
       <c r="E398" s="71"/>
       <c r="F398" s="21"/>
     </row>
-    <row r="399" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A399" s="45"/>
       <c r="B399" s="45"/>
       <c r="C399" s="45"/>
@@ -9053,7 +9053,7 @@
       <c r="E399" s="71"/>
       <c r="F399" s="21"/>
     </row>
-    <row r="400" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A400" s="45"/>
       <c r="B400" s="45"/>
       <c r="C400" s="45"/>
@@ -9061,7 +9061,7 @@
       <c r="E400" s="71"/>
       <c r="F400" s="21"/>
     </row>
-    <row r="401" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A401" s="45"/>
       <c r="B401" s="45"/>
       <c r="C401" s="45"/>
@@ -9069,7 +9069,7 @@
       <c r="E401" s="71"/>
       <c r="F401" s="21"/>
     </row>
-    <row r="402" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402" s="45"/>
       <c r="B402" s="45"/>
       <c r="C402" s="45"/>
@@ -9077,7 +9077,7 @@
       <c r="E402" s="71"/>
       <c r="F402" s="21"/>
     </row>
-    <row r="403" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A403" s="45"/>
       <c r="B403" s="45"/>
       <c r="C403" s="45"/>
@@ -9085,7 +9085,7 @@
       <c r="E403" s="71"/>
       <c r="F403" s="21"/>
     </row>
-    <row r="404" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A404" s="45"/>
       <c r="B404" s="45"/>
       <c r="C404" s="45"/>
@@ -9093,7 +9093,7 @@
       <c r="E404" s="71"/>
       <c r="F404" s="21"/>
     </row>
-    <row r="405" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A405" s="45"/>
       <c r="B405" s="45"/>
       <c r="C405" s="45"/>
@@ -9101,7 +9101,7 @@
       <c r="E405" s="71"/>
       <c r="F405" s="21"/>
     </row>
-    <row r="406" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A406" s="45"/>
       <c r="B406" s="45"/>
       <c r="C406" s="45"/>
@@ -9109,7 +9109,7 @@
       <c r="E406" s="71"/>
       <c r="F406" s="21"/>
     </row>
-    <row r="407" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A407" s="45"/>
       <c r="B407" s="45"/>
       <c r="C407" s="45"/>
@@ -9117,7 +9117,7 @@
       <c r="E407" s="71"/>
       <c r="F407" s="21"/>
     </row>
-    <row r="408" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A408" s="45"/>
       <c r="B408" s="45"/>
       <c r="C408" s="45"/>
@@ -9125,7 +9125,7 @@
       <c r="E408" s="71"/>
       <c r="F408" s="21"/>
     </row>
-    <row r="409" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A409" s="45"/>
       <c r="B409" s="45"/>
       <c r="C409" s="45"/>
@@ -9133,7 +9133,7 @@
       <c r="E409" s="71"/>
       <c r="F409" s="21"/>
     </row>
-    <row r="410" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A410" s="45"/>
       <c r="B410" s="45"/>
       <c r="C410" s="45"/>
@@ -9141,7 +9141,7 @@
       <c r="E410" s="71"/>
       <c r="F410" s="21"/>
     </row>
-    <row r="411" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A411" s="45"/>
       <c r="B411" s="45"/>
       <c r="C411" s="45"/>
@@ -9149,7 +9149,7 @@
       <c r="E411" s="71"/>
       <c r="F411" s="21"/>
     </row>
-    <row r="412" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A412" s="45"/>
       <c r="B412" s="45"/>
       <c r="C412" s="45"/>
@@ -9157,7 +9157,7 @@
       <c r="E412" s="71"/>
       <c r="F412" s="21"/>
     </row>
-    <row r="413" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A413" s="45"/>
       <c r="B413" s="45"/>
       <c r="C413" s="45"/>
@@ -9165,7 +9165,7 @@
       <c r="E413" s="71"/>
       <c r="F413" s="21"/>
     </row>
-    <row r="414" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A414" s="45"/>
       <c r="B414" s="45"/>
       <c r="C414" s="45"/>
@@ -9173,7 +9173,7 @@
       <c r="E414" s="71"/>
       <c r="F414" s="21"/>
     </row>
-    <row r="415" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A415" s="45"/>
       <c r="B415" s="45"/>
       <c r="C415" s="45"/>
@@ -9181,7 +9181,7 @@
       <c r="E415" s="71"/>
       <c r="F415" s="21"/>
     </row>
-    <row r="416" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A416" s="45"/>
       <c r="B416" s="45"/>
       <c r="C416" s="45"/>
@@ -9189,7 +9189,7 @@
       <c r="E416" s="71"/>
       <c r="F416" s="21"/>
     </row>
-    <row r="417" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A417" s="45"/>
       <c r="B417" s="45"/>
       <c r="C417" s="45"/>
@@ -9197,7 +9197,7 @@
       <c r="E417" s="71"/>
       <c r="F417" s="21"/>
     </row>
-    <row r="418" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A418" s="45"/>
       <c r="B418" s="45"/>
       <c r="C418" s="45"/>
@@ -9205,7 +9205,7 @@
       <c r="E418" s="71"/>
       <c r="F418" s="21"/>
     </row>
-    <row r="419" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A419" s="45"/>
       <c r="B419" s="45"/>
       <c r="C419" s="45"/>
@@ -9213,7 +9213,7 @@
       <c r="E419" s="71"/>
       <c r="F419" s="21"/>
     </row>
-    <row r="420" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A420" s="45"/>
       <c r="B420" s="45"/>
       <c r="C420" s="45"/>
@@ -9221,7 +9221,7 @@
       <c r="E420" s="71"/>
       <c r="F420" s="21"/>
     </row>
-    <row r="421" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A421" s="45"/>
       <c r="B421" s="45"/>
       <c r="C421" s="45"/>
@@ -9229,7 +9229,7 @@
       <c r="E421" s="71"/>
       <c r="F421" s="21"/>
     </row>
-    <row r="422" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A422" s="45"/>
       <c r="B422" s="45"/>
       <c r="C422" s="45"/>
@@ -9237,7 +9237,7 @@
       <c r="E422" s="71"/>
       <c r="F422" s="21"/>
     </row>
-    <row r="423" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A423" s="45"/>
       <c r="B423" s="45"/>
       <c r="C423" s="45"/>
@@ -9245,7 +9245,7 @@
       <c r="E423" s="71"/>
       <c r="F423" s="21"/>
     </row>
-    <row r="424" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A424" s="45"/>
       <c r="B424" s="45"/>
       <c r="C424" s="45"/>
@@ -9253,7 +9253,7 @@
       <c r="E424" s="71"/>
       <c r="F424" s="21"/>
     </row>
-    <row r="425" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A425" s="45"/>
       <c r="B425" s="45"/>
       <c r="C425" s="45"/>
@@ -9261,7 +9261,7 @@
       <c r="E425" s="71"/>
       <c r="F425" s="21"/>
     </row>
-    <row r="426" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A426" s="45"/>
       <c r="B426" s="45"/>
       <c r="C426" s="45"/>
@@ -9269,7 +9269,7 @@
       <c r="E426" s="71"/>
       <c r="F426" s="21"/>
     </row>
-    <row r="427" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A427" s="45"/>
       <c r="B427" s="45"/>
       <c r="C427" s="45"/>
@@ -9277,7 +9277,7 @@
       <c r="E427" s="71"/>
       <c r="F427" s="21"/>
     </row>
-    <row r="428" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A428" s="45"/>
       <c r="B428" s="45"/>
       <c r="C428" s="45"/>
@@ -9285,7 +9285,7 @@
       <c r="E428" s="71"/>
       <c r="F428" s="21"/>
     </row>
-    <row r="429" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A429" s="45"/>
       <c r="B429" s="45"/>
       <c r="C429" s="45"/>
@@ -9293,7 +9293,7 @@
       <c r="E429" s="71"/>
       <c r="F429" s="21"/>
     </row>
-    <row r="430" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A430" s="45"/>
       <c r="B430" s="45"/>
       <c r="C430" s="45"/>
@@ -9301,7 +9301,7 @@
       <c r="E430" s="71"/>
       <c r="F430" s="21"/>
     </row>
-    <row r="431" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A431" s="45"/>
       <c r="B431" s="45"/>
       <c r="C431" s="45"/>
@@ -9309,7 +9309,7 @@
       <c r="E431" s="71"/>
       <c r="F431" s="21"/>
     </row>
-    <row r="432" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A432" s="45"/>
       <c r="B432" s="45"/>
       <c r="C432" s="45"/>
@@ -9317,7 +9317,7 @@
       <c r="E432" s="71"/>
       <c r="F432" s="21"/>
     </row>
-    <row r="433" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A433" s="45"/>
       <c r="B433" s="45"/>
       <c r="C433" s="45"/>
@@ -9325,7 +9325,7 @@
       <c r="E433" s="71"/>
       <c r="F433" s="21"/>
     </row>
-    <row r="434" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A434" s="45"/>
       <c r="B434" s="45"/>
       <c r="C434" s="45"/>
@@ -9333,7 +9333,7 @@
       <c r="E434" s="71"/>
       <c r="F434" s="21"/>
     </row>
-    <row r="435" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A435" s="45"/>
       <c r="B435" s="45"/>
       <c r="C435" s="45"/>
@@ -9341,7 +9341,7 @@
       <c r="E435" s="71"/>
       <c r="F435" s="21"/>
     </row>
-    <row r="436" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A436" s="45"/>
       <c r="B436" s="45"/>
       <c r="C436" s="45"/>
@@ -9349,7 +9349,7 @@
       <c r="E436" s="71"/>
       <c r="F436" s="21"/>
     </row>
-    <row r="437" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A437" s="45"/>
       <c r="B437" s="45"/>
       <c r="C437" s="45"/>
@@ -9357,7 +9357,7 @@
       <c r="E437" s="71"/>
       <c r="F437" s="21"/>
     </row>
-    <row r="438" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A438" s="45"/>
       <c r="B438" s="45"/>
       <c r="C438" s="45"/>
@@ -9365,7 +9365,7 @@
       <c r="E438" s="71"/>
       <c r="F438" s="21"/>
     </row>
-    <row r="439" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A439" s="45"/>
       <c r="B439" s="45"/>
       <c r="C439" s="45"/>
@@ -9373,7 +9373,7 @@
       <c r="E439" s="71"/>
       <c r="F439" s="21"/>
     </row>
-    <row r="440" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A440" s="45"/>
       <c r="B440" s="45"/>
       <c r="C440" s="45"/>
@@ -9381,7 +9381,7 @@
       <c r="E440" s="71"/>
       <c r="F440" s="21"/>
     </row>
-    <row r="441" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A441" s="45"/>
       <c r="B441" s="45"/>
       <c r="C441" s="45"/>
@@ -9389,7 +9389,7 @@
       <c r="E441" s="71"/>
       <c r="F441" s="21"/>
     </row>
-    <row r="442" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A442" s="45"/>
       <c r="B442" s="45"/>
       <c r="C442" s="45"/>
@@ -9397,7 +9397,7 @@
       <c r="E442" s="71"/>
       <c r="F442" s="21"/>
     </row>
-    <row r="443" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A443" s="45"/>
       <c r="B443" s="45"/>
       <c r="C443" s="45"/>
@@ -9405,7 +9405,7 @@
       <c r="E443" s="71"/>
       <c r="F443" s="21"/>
     </row>
-    <row r="444" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A444" s="45"/>
       <c r="B444" s="45"/>
       <c r="C444" s="45"/>
@@ -9413,7 +9413,7 @@
       <c r="E444" s="71"/>
       <c r="F444" s="21"/>
     </row>
-    <row r="445" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A445" s="45"/>
       <c r="B445" s="45"/>
       <c r="C445" s="45"/>
@@ -9421,7 +9421,7 @@
       <c r="E445" s="71"/>
       <c r="F445" s="21"/>
     </row>
-    <row r="446" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A446" s="45"/>
       <c r="B446" s="45"/>
       <c r="C446" s="45"/>
@@ -9429,7 +9429,7 @@
       <c r="E446" s="71"/>
       <c r="F446" s="21"/>
     </row>
-    <row r="447" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A447" s="45"/>
       <c r="B447" s="45"/>
       <c r="C447" s="45"/>
@@ -9437,7 +9437,7 @@
       <c r="E447" s="71"/>
       <c r="F447" s="21"/>
     </row>
-    <row r="448" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A448" s="45"/>
       <c r="B448" s="45"/>
       <c r="C448" s="45"/>
@@ -9445,7 +9445,7 @@
       <c r="E448" s="71"/>
       <c r="F448" s="21"/>
     </row>
-    <row r="449" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A449" s="45"/>
       <c r="B449" s="45"/>
       <c r="C449" s="45"/>
@@ -9453,7 +9453,7 @@
       <c r="E449" s="71"/>
       <c r="F449" s="21"/>
     </row>
-    <row r="450" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A450" s="45"/>
       <c r="B450" s="45"/>
       <c r="C450" s="45"/>
@@ -9461,7 +9461,7 @@
       <c r="E450" s="71"/>
       <c r="F450" s="21"/>
     </row>
-    <row r="451" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A451" s="45"/>
       <c r="B451" s="45"/>
       <c r="C451" s="45"/>
@@ -9469,7 +9469,7 @@
       <c r="E451" s="71"/>
       <c r="F451" s="21"/>
     </row>
-    <row r="452" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A452" s="45"/>
       <c r="B452" s="45"/>
       <c r="C452" s="45"/>
@@ -9477,7 +9477,7 @@
       <c r="E452" s="71"/>
       <c r="F452" s="21"/>
     </row>
-    <row r="453" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A453" s="45"/>
       <c r="B453" s="45"/>
       <c r="C453" s="45"/>
@@ -9485,7 +9485,7 @@
       <c r="E453" s="71"/>
       <c r="F453" s="21"/>
     </row>
-    <row r="454" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A454" s="45"/>
       <c r="B454" s="45"/>
       <c r="C454" s="45"/>
@@ -9493,7 +9493,7 @@
       <c r="E454" s="71"/>
       <c r="F454" s="21"/>
     </row>
-    <row r="455" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A455" s="45"/>
       <c r="B455" s="45"/>
       <c r="C455" s="45"/>
@@ -9501,7 +9501,7 @@
       <c r="E455" s="71"/>
       <c r="F455" s="21"/>
     </row>
-    <row r="456" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A456" s="45"/>
       <c r="B456" s="45"/>
       <c r="C456" s="45"/>
@@ -9509,7 +9509,7 @@
       <c r="E456" s="71"/>
       <c r="F456" s="21"/>
     </row>
-    <row r="457" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A457" s="45"/>
       <c r="B457" s="45"/>
       <c r="C457" s="45"/>
@@ -9517,7 +9517,7 @@
       <c r="E457" s="71"/>
       <c r="F457" s="21"/>
     </row>
-    <row r="458" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A458" s="45"/>
       <c r="B458" s="45"/>
       <c r="C458" s="45"/>
@@ -9525,7 +9525,7 @@
       <c r="E458" s="71"/>
       <c r="F458" s="21"/>
     </row>
-    <row r="459" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A459" s="45"/>
       <c r="B459" s="45"/>
       <c r="C459" s="45"/>
@@ -9533,7 +9533,7 @@
       <c r="E459" s="71"/>
       <c r="F459" s="21"/>
     </row>
-    <row r="460" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A460" s="45"/>
       <c r="B460" s="45"/>
       <c r="C460" s="45"/>
@@ -9541,7 +9541,7 @@
       <c r="E460" s="71"/>
       <c r="F460" s="21"/>
     </row>
-    <row r="461" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A461" s="45"/>
       <c r="B461" s="45"/>
       <c r="C461" s="45"/>
@@ -9549,7 +9549,7 @@
       <c r="E461" s="71"/>
       <c r="F461" s="21"/>
     </row>
-    <row r="462" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A462" s="45"/>
       <c r="B462" s="45"/>
       <c r="C462" s="45"/>
@@ -9557,7 +9557,7 @@
       <c r="E462" s="71"/>
       <c r="F462" s="21"/>
     </row>
-    <row r="463" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A463" s="45"/>
       <c r="B463" s="45"/>
       <c r="C463" s="45"/>
@@ -9565,7 +9565,7 @@
       <c r="E463" s="71"/>
       <c r="F463" s="21"/>
     </row>
-    <row r="464" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A464" s="45"/>
       <c r="B464" s="45"/>
       <c r="C464" s="45"/>
@@ -9573,7 +9573,7 @@
       <c r="E464" s="71"/>
       <c r="F464" s="21"/>
     </row>
-    <row r="465" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A465" s="45"/>
       <c r="B465" s="45"/>
       <c r="C465" s="45"/>
@@ -9581,7 +9581,7 @@
       <c r="E465" s="71"/>
       <c r="F465" s="21"/>
     </row>
-    <row r="466" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A466" s="45"/>
       <c r="B466" s="45"/>
       <c r="C466" s="45"/>
@@ -9589,7 +9589,7 @@
       <c r="E466" s="71"/>
       <c r="F466" s="21"/>
     </row>
-    <row r="467" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A467" s="45"/>
       <c r="B467" s="45"/>
       <c r="C467" s="45"/>
@@ -9597,7 +9597,7 @@
       <c r="E467" s="71"/>
       <c r="F467" s="21"/>
     </row>
-    <row r="468" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A468" s="45"/>
       <c r="B468" s="45"/>
       <c r="C468" s="45"/>
@@ -9605,7 +9605,7 @@
       <c r="E468" s="71"/>
       <c r="F468" s="21"/>
     </row>
-    <row r="469" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A469" s="45"/>
       <c r="B469" s="45"/>
       <c r="C469" s="45"/>
@@ -9613,7 +9613,7 @@
       <c r="E469" s="71"/>
       <c r="F469" s="21"/>
     </row>
-    <row r="470" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A470" s="45"/>
       <c r="B470" s="45"/>
       <c r="C470" s="45"/>
@@ -9621,7 +9621,7 @@
       <c r="E470" s="71"/>
       <c r="F470" s="21"/>
     </row>
-    <row r="471" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A471" s="45"/>
       <c r="B471" s="45"/>
       <c r="C471" s="45"/>
@@ -9629,7 +9629,7 @@
       <c r="E471" s="71"/>
       <c r="F471" s="21"/>
     </row>
-    <row r="472" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A472" s="45"/>
       <c r="B472" s="45"/>
       <c r="C472" s="45"/>
@@ -9637,7 +9637,7 @@
       <c r="E472" s="71"/>
       <c r="F472" s="21"/>
     </row>
-    <row r="473" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A473" s="45"/>
       <c r="B473" s="45"/>
       <c r="C473" s="45"/>
@@ -9645,7 +9645,7 @@
       <c r="E473" s="71"/>
       <c r="F473" s="21"/>
     </row>
-    <row r="474" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A474" s="45"/>
       <c r="B474" s="45"/>
       <c r="C474" s="45"/>
@@ -9653,7 +9653,7 @@
       <c r="E474" s="71"/>
       <c r="F474" s="21"/>
     </row>
-    <row r="475" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A475" s="45"/>
       <c r="B475" s="45"/>
       <c r="C475" s="45"/>
@@ -9661,7 +9661,7 @@
       <c r="E475" s="71"/>
       <c r="F475" s="21"/>
     </row>
-    <row r="476" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A476" s="45"/>
       <c r="B476" s="45"/>
       <c r="C476" s="45"/>
@@ -9669,7 +9669,7 @@
       <c r="E476" s="71"/>
       <c r="F476" s="21"/>
     </row>
-    <row r="477" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A477" s="45"/>
       <c r="B477" s="45"/>
       <c r="C477" s="45"/>
@@ -9677,7 +9677,7 @@
       <c r="E477" s="71"/>
       <c r="F477" s="21"/>
     </row>
-    <row r="478" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A478" s="45"/>
       <c r="B478" s="45"/>
       <c r="C478" s="45"/>
@@ -9685,7 +9685,7 @@
       <c r="E478" s="71"/>
       <c r="F478" s="21"/>
     </row>
-    <row r="479" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A479" s="45"/>
       <c r="B479" s="45"/>
       <c r="C479" s="45"/>
@@ -9693,7 +9693,7 @@
       <c r="E479" s="71"/>
       <c r="F479" s="21"/>
     </row>
-    <row r="480" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A480" s="45"/>
       <c r="B480" s="45"/>
       <c r="C480" s="45"/>
@@ -9701,7 +9701,7 @@
       <c r="E480" s="71"/>
       <c r="F480" s="21"/>
     </row>
-    <row r="481" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A481" s="45"/>
       <c r="B481" s="45"/>
       <c r="C481" s="45"/>
@@ -9709,7 +9709,7 @@
       <c r="E481" s="71"/>
       <c r="F481" s="21"/>
     </row>
-    <row r="482" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A482" s="45"/>
       <c r="B482" s="45"/>
       <c r="C482" s="45"/>
@@ -9717,7 +9717,7 @@
       <c r="E482" s="71"/>
       <c r="F482" s="21"/>
     </row>
-    <row r="483" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A483" s="45"/>
       <c r="B483" s="45"/>
       <c r="C483" s="45"/>
@@ -9725,7 +9725,7 @@
       <c r="E483" s="71"/>
       <c r="F483" s="21"/>
     </row>
-    <row r="484" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A484" s="45"/>
       <c r="B484" s="45"/>
       <c r="C484" s="45"/>
@@ -9733,7 +9733,7 @@
       <c r="E484" s="71"/>
       <c r="F484" s="21"/>
     </row>
-    <row r="485" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A485" s="45"/>
       <c r="B485" s="45"/>
       <c r="C485" s="45"/>
@@ -9741,7 +9741,7 @@
       <c r="E485" s="71"/>
       <c r="F485" s="21"/>
     </row>
-    <row r="486" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A486" s="45"/>
       <c r="B486" s="45"/>
       <c r="C486" s="45"/>
@@ -9749,7 +9749,7 @@
       <c r="E486" s="71"/>
       <c r="F486" s="21"/>
     </row>
-    <row r="487" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A487" s="45"/>
       <c r="B487" s="45"/>
       <c r="C487" s="45"/>
@@ -9757,7 +9757,7 @@
       <c r="E487" s="71"/>
       <c r="F487" s="21"/>
     </row>
-    <row r="488" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A488" s="45"/>
       <c r="B488" s="45"/>
       <c r="C488" s="45"/>
@@ -9765,7 +9765,7 @@
       <c r="E488" s="71"/>
       <c r="F488" s="21"/>
     </row>
-    <row r="489" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A489" s="45"/>
       <c r="B489" s="45"/>
       <c r="C489" s="45"/>
@@ -9773,7 +9773,7 @@
       <c r="E489" s="71"/>
       <c r="F489" s="21"/>
     </row>
-    <row r="490" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A490" s="45"/>
       <c r="B490" s="45"/>
       <c r="C490" s="45"/>
@@ -9781,7 +9781,7 @@
       <c r="E490" s="71"/>
       <c r="F490" s="21"/>
     </row>
-    <row r="491" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A491" s="45"/>
       <c r="B491" s="45"/>
       <c r="C491" s="45"/>
@@ -9789,7 +9789,7 @@
       <c r="E491" s="71"/>
       <c r="F491" s="21"/>
     </row>
-    <row r="492" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A492" s="45"/>
       <c r="B492" s="45"/>
       <c r="C492" s="45"/>
@@ -9797,7 +9797,7 @@
       <c r="E492" s="71"/>
       <c r="F492" s="21"/>
     </row>
-    <row r="493" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A493" s="45"/>
       <c r="B493" s="45"/>
       <c r="C493" s="45"/>
@@ -9805,7 +9805,7 @@
       <c r="E493" s="71"/>
       <c r="F493" s="21"/>
     </row>
-    <row r="494" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A494" s="45"/>
       <c r="B494" s="45"/>
       <c r="C494" s="45"/>
@@ -9813,7 +9813,7 @@
       <c r="E494" s="71"/>
       <c r="F494" s="21"/>
     </row>
-    <row r="495" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A495" s="45"/>
       <c r="B495" s="45"/>
       <c r="C495" s="45"/>
@@ -9821,7 +9821,7 @@
       <c r="E495" s="71"/>
       <c r="F495" s="21"/>
     </row>
-    <row r="496" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A496" s="45"/>
       <c r="B496" s="45"/>
       <c r="C496" s="45"/>
@@ -9829,7 +9829,7 @@
       <c r="E496" s="71"/>
       <c r="F496" s="21"/>
     </row>
-    <row r="497" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A497" s="45"/>
       <c r="B497" s="45"/>
       <c r="C497" s="45"/>
@@ -9837,7 +9837,7 @@
       <c r="E497" s="71"/>
       <c r="F497" s="21"/>
     </row>
-    <row r="498" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A498" s="45"/>
       <c r="B498" s="45"/>
       <c r="C498" s="45"/>
@@ -9845,7 +9845,7 @@
       <c r="E498" s="71"/>
       <c r="F498" s="21"/>
     </row>
-    <row r="499" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A499" s="45"/>
       <c r="B499" s="45"/>
       <c r="C499" s="45"/>
@@ -9853,7 +9853,7 @@
       <c r="E499" s="71"/>
       <c r="F499" s="21"/>
     </row>
-    <row r="500" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A500" s="45"/>
       <c r="B500" s="45"/>
       <c r="C500" s="45"/>
@@ -9861,7 +9861,7 @@
       <c r="E500" s="71"/>
       <c r="F500" s="21"/>
     </row>
-    <row r="501" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A501" s="45"/>
       <c r="B501" s="45"/>
       <c r="C501" s="45"/>
@@ -9869,7 +9869,7 @@
       <c r="E501" s="71"/>
       <c r="F501" s="21"/>
     </row>
-    <row r="502" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A502" s="45"/>
       <c r="B502" s="45"/>
       <c r="C502" s="45"/>
@@ -9877,7 +9877,7 @@
       <c r="E502" s="71"/>
       <c r="F502" s="21"/>
     </row>
-    <row r="503" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A503" s="45"/>
       <c r="B503" s="45"/>
       <c r="C503" s="45"/>
@@ -9885,7 +9885,7 @@
       <c r="E503" s="71"/>
       <c r="F503" s="21"/>
     </row>
-    <row r="504" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A504" s="45"/>
       <c r="B504" s="45"/>
       <c r="C504" s="45"/>
@@ -9893,7 +9893,7 @@
       <c r="E504" s="71"/>
       <c r="F504" s="21"/>
     </row>
-    <row r="505" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A505" s="45"/>
       <c r="B505" s="45"/>
       <c r="C505" s="45"/>
@@ -9901,7 +9901,7 @@
       <c r="E505" s="71"/>
       <c r="F505" s="21"/>
     </row>
-    <row r="506" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A506" s="45"/>
       <c r="B506" s="45"/>
       <c r="C506" s="45"/>
@@ -9909,7 +9909,7 @@
       <c r="E506" s="71"/>
       <c r="F506" s="21"/>
     </row>
-    <row r="507" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A507" s="45"/>
       <c r="B507" s="45"/>
       <c r="C507" s="45"/>
@@ -9917,7 +9917,7 @@
       <c r="E507" s="71"/>
       <c r="F507" s="21"/>
     </row>
-    <row r="508" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A508" s="45"/>
       <c r="B508" s="45"/>
       <c r="C508" s="45"/>
@@ -9925,7 +9925,7 @@
       <c r="E508" s="71"/>
       <c r="F508" s="21"/>
     </row>
-    <row r="509" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A509" s="45"/>
       <c r="B509" s="45"/>
       <c r="C509" s="45"/>
@@ -9933,7 +9933,7 @@
       <c r="E509" s="71"/>
       <c r="F509" s="21"/>
     </row>
-    <row r="510" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A510" s="45"/>
       <c r="B510" s="45"/>
       <c r="C510" s="45"/>
@@ -9941,7 +9941,7 @@
       <c r="E510" s="71"/>
       <c r="F510" s="21"/>
     </row>
-    <row r="511" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A511" s="45"/>
       <c r="B511" s="45"/>
       <c r="C511" s="45"/>
@@ -9949,7 +9949,7 @@
       <c r="E511" s="71"/>
       <c r="F511" s="21"/>
     </row>
-    <row r="512" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A512" s="45"/>
       <c r="B512" s="45"/>
       <c r="C512" s="45"/>
@@ -9957,7 +9957,7 @@
       <c r="E512" s="71"/>
       <c r="F512" s="21"/>
     </row>
-    <row r="513" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A513" s="45"/>
       <c r="B513" s="45"/>
       <c r="C513" s="45"/>
@@ -9965,7 +9965,7 @@
       <c r="E513" s="71"/>
       <c r="F513" s="21"/>
     </row>
-    <row r="514" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A514" s="45"/>
       <c r="B514" s="45"/>
       <c r="C514" s="45"/>
@@ -9973,7 +9973,7 @@
       <c r="E514" s="71"/>
       <c r="F514" s="21"/>
     </row>
-    <row r="515" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A515" s="45"/>
       <c r="B515" s="45"/>
       <c r="C515" s="45"/>
@@ -9981,7 +9981,7 @@
       <c r="E515" s="71"/>
       <c r="F515" s="21"/>
     </row>
-    <row r="516" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A516" s="45"/>
       <c r="B516" s="45"/>
       <c r="C516" s="45"/>
@@ -9989,7 +9989,7 @@
       <c r="E516" s="71"/>
       <c r="F516" s="21"/>
     </row>
-    <row r="517" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A517" s="45"/>
       <c r="B517" s="45"/>
       <c r="C517" s="45"/>
@@ -9997,7 +9997,7 @@
       <c r="E517" s="71"/>
       <c r="F517" s="21"/>
     </row>
-    <row r="518" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A518" s="45"/>
       <c r="B518" s="45"/>
       <c r="C518" s="45"/>
@@ -10005,7 +10005,7 @@
       <c r="E518" s="71"/>
       <c r="F518" s="21"/>
     </row>
-    <row r="519" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A519" s="45"/>
       <c r="B519" s="45"/>
       <c r="C519" s="45"/>
@@ -10013,7 +10013,7 @@
       <c r="E519" s="71"/>
       <c r="F519" s="21"/>
     </row>
-    <row r="520" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A520" s="45"/>
       <c r="B520" s="45"/>
       <c r="C520" s="45"/>
@@ -10021,7 +10021,7 @@
       <c r="E520" s="71"/>
       <c r="F520" s="21"/>
     </row>
-    <row r="521" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A521" s="45"/>
       <c r="B521" s="45"/>
       <c r="C521" s="45"/>
@@ -10029,7 +10029,7 @@
       <c r="E521" s="71"/>
       <c r="F521" s="21"/>
     </row>
-    <row r="522" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A522" s="45"/>
       <c r="B522" s="45"/>
       <c r="C522" s="45"/>
@@ -10037,7 +10037,7 @@
       <c r="E522" s="71"/>
       <c r="F522" s="21"/>
     </row>
-    <row r="523" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A523" s="45"/>
       <c r="B523" s="45"/>
       <c r="C523" s="45"/>
@@ -10045,7 +10045,7 @@
       <c r="E523" s="71"/>
       <c r="F523" s="21"/>
     </row>
-    <row r="524" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A524" s="45"/>
       <c r="B524" s="45"/>
       <c r="C524" s="45"/>
@@ -10053,7 +10053,7 @@
       <c r="E524" s="71"/>
       <c r="F524" s="21"/>
     </row>
-    <row r="525" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A525" s="45"/>
       <c r="B525" s="45"/>
       <c r="C525" s="45"/>
@@ -10061,7 +10061,7 @@
       <c r="E525" s="71"/>
       <c r="F525" s="21"/>
     </row>
-    <row r="526" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A526" s="45"/>
       <c r="B526" s="45"/>
       <c r="C526" s="45"/>
@@ -10069,7 +10069,7 @@
       <c r="E526" s="71"/>
       <c r="F526" s="21"/>
     </row>
-    <row r="527" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A527" s="45"/>
       <c r="B527" s="45"/>
       <c r="C527" s="45"/>
@@ -10077,7 +10077,7 @@
       <c r="E527" s="71"/>
       <c r="F527" s="21"/>
     </row>
-    <row r="528" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A528" s="45"/>
       <c r="B528" s="45"/>
       <c r="C528" s="45"/>
@@ -10085,7 +10085,7 @@
       <c r="E528" s="71"/>
       <c r="F528" s="21"/>
     </row>
-    <row r="529" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A529" s="45"/>
       <c r="B529" s="45"/>
       <c r="C529" s="45"/>
@@ -10093,7 +10093,7 @@
       <c r="E529" s="71"/>
       <c r="F529" s="21"/>
     </row>
-    <row r="530" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A530" s="45"/>
       <c r="B530" s="45"/>
       <c r="C530" s="45"/>
@@ -10115,17 +10115,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="15.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10146,7 +10146,7 @@
         <v>Airport ATFM delay</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
@@ -10168,7 +10168,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
@@ -10180,7 +10180,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="72" t="str">
         <f>APT_ATFM_SES_YY!A4</f>
         <v>Period: JAN-APR</v>
@@ -10191,7 +10191,7 @@
       <c r="E4" s="73"/>
       <c r="F4" s="73"/>
     </row>
-    <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="69" t="s">
         <v>100</v>
       </c>
@@ -10211,7 +10211,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="74" t="s">
         <v>105</v>
       </c>
@@ -10232,7 +10232,7 @@
         <v>10071</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="77" t="s">
         <v>111</v>
       </c>
@@ -10253,7 +10253,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="77" t="s">
         <v>111</v>
       </c>
@@ -10274,7 +10274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="77" t="s">
         <v>111</v>
       </c>
@@ -10295,7 +10295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="77" t="s">
         <v>111</v>
       </c>
@@ -10316,7 +10316,7 @@
         <v>21373</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="77" t="s">
         <v>111</v>
       </c>
@@ -10337,7 +10337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="77" t="s">
         <v>111</v>
       </c>
@@ -10358,7 +10358,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="77" t="s">
         <v>111</v>
       </c>
@@ -10379,7 +10379,7 @@
         <v>12335</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="77" t="s">
         <v>111</v>
       </c>
@@ -10400,7 +10400,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="77" t="s">
         <v>111</v>
       </c>
@@ -10421,7 +10421,7 @@
         <v>6339</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="77" t="s">
         <v>111</v>
       </c>
@@ -10442,7 +10442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="77" t="s">
         <v>111</v>
       </c>
@@ -10463,7 +10463,7 @@
         <v>11519</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="77" t="s">
         <v>111</v>
       </c>
@@ -10484,7 +10484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="77" t="s">
         <v>111</v>
       </c>
@@ -10505,7 +10505,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="77" t="s">
         <v>111</v>
       </c>
@@ -10526,7 +10526,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="77" t="s">
         <v>111</v>
       </c>
@@ -10547,7 +10547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="77" t="s">
         <v>108</v>
       </c>
@@ -10568,7 +10568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="77" t="s">
         <v>108</v>
       </c>
@@ -10589,7 +10589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="77" t="s">
         <v>109</v>
       </c>
@@ -10610,7 +10610,7 @@
         <v>2471</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="77" t="s">
         <v>119</v>
       </c>
@@ -10631,7 +10631,7 @@
         <v>121082</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="77" t="s">
         <v>119</v>
       </c>
@@ -10652,7 +10652,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="77" t="s">
         <v>119</v>
       </c>
@@ -10673,7 +10673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="77" t="s">
         <v>119</v>
       </c>
@@ -10694,7 +10694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="77" t="s">
         <v>114</v>
       </c>
@@ -10715,7 +10715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="77" t="s">
         <v>114</v>
       </c>
@@ -10736,7 +10736,7 @@
         <v>3703</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="77" t="s">
         <v>114</v>
       </c>
@@ -10757,7 +10757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="77" t="s">
         <v>107</v>
       </c>
@@ -10778,7 +10778,7 @@
         <v>124753</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="77" t="s">
         <v>117</v>
       </c>
@@ -10799,7 +10799,7 @@
         <v>3257</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="77" t="s">
         <v>120</v>
       </c>
@@ -10820,7 +10820,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="77" t="s">
         <v>120</v>
       </c>
@@ -10841,7 +10841,7 @@
         <v>10933</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="77" t="s">
         <v>120</v>
       </c>
@@ -10862,7 +10862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="77" t="s">
         <v>120</v>
       </c>
@@ -10883,7 +10883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="77" t="s">
         <v>121</v>
       </c>
@@ -10904,7 +10904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="77" t="s">
         <v>121</v>
       </c>
@@ -10925,7 +10925,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="77" t="s">
         <v>121</v>
       </c>
@@ -10946,7 +10946,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="77" t="s">
         <v>121</v>
       </c>
@@ -10967,7 +10967,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="77" t="s">
         <v>121</v>
       </c>
@@ -10988,7 +10988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="77" t="s">
         <v>121</v>
       </c>
@@ -11009,7 +11009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="77" t="s">
         <v>121</v>
       </c>
@@ -11030,7 +11030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="77" t="s">
         <v>121</v>
       </c>
@@ -11051,7 +11051,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="77" t="s">
         <v>121</v>
       </c>
@@ -11072,7 +11072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="77" t="s">
         <v>121</v>
       </c>
@@ -11093,7 +11093,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="77" t="s">
         <v>121</v>
       </c>
@@ -11114,7 +11114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="77" t="s">
         <v>121</v>
       </c>
@@ -11135,7 +11135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="77" t="s">
         <v>121</v>
       </c>
@@ -11156,7 +11156,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="77" t="s">
         <v>121</v>
       </c>
@@ -11177,7 +11177,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="77" t="s">
         <v>121</v>
       </c>
@@ -11198,7 +11198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="77" t="s">
         <v>125</v>
       </c>
@@ -11219,7 +11219,7 @@
         <v>9221</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="77" t="s">
         <v>116</v>
       </c>
@@ -11240,7 +11240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="77" t="s">
         <v>116</v>
       </c>
@@ -11261,7 +11261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="77" t="s">
         <v>116</v>
       </c>
@@ -11282,7 +11282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="77" t="s">
         <v>124</v>
       </c>
@@ -11303,7 +11303,7 @@
         <v>9339</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="77" t="s">
         <v>124</v>
       </c>
@@ -11324,7 +11324,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="77" t="s">
         <v>124</v>
       </c>
@@ -11345,7 +11345,7 @@
         <v>25211</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="77" t="s">
         <v>124</v>
       </c>
@@ -11366,7 +11366,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="77" t="s">
         <v>124</v>
       </c>
@@ -11387,7 +11387,7 @@
         <v>28086</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="77" t="s">
         <v>124</v>
       </c>
@@ -11408,7 +11408,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="77" t="s">
         <v>124</v>
       </c>
@@ -11429,7 +11429,7 @@
         <v>9543</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="77" t="s">
         <v>110</v>
       </c>
@@ -11450,7 +11450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="77" t="s">
         <v>110</v>
       </c>
@@ -11471,7 +11471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="77" t="s">
         <v>110</v>
       </c>
@@ -11492,7 +11492,7 @@
         <v>27251</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="77" t="s">
         <v>110</v>
       </c>
@@ -11513,7 +11513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="77" t="s">
         <v>110</v>
       </c>
@@ -11534,7 +11534,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="77" t="s">
         <v>110</v>
       </c>
@@ -11555,7 +11555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="77" t="s">
         <v>110</v>
       </c>
@@ -11576,7 +11576,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="77" t="s">
         <v>110</v>
       </c>
@@ -11597,7 +11597,7 @@
         <v>2865</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="77" t="s">
         <v>110</v>
       </c>
@@ -11618,7 +11618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="77" t="s">
         <v>110</v>
       </c>
@@ -11639,7 +11639,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="77" t="s">
         <v>110</v>
       </c>
@@ -11660,7 +11660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="77" t="s">
         <v>110</v>
       </c>
@@ -11681,7 +11681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="77" t="s">
         <v>110</v>
       </c>
@@ -11702,7 +11702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="77" t="s">
         <v>110</v>
       </c>
@@ -11723,7 +11723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="77" t="s">
         <v>110</v>
       </c>
@@ -11744,7 +11744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="77" t="s">
         <v>110</v>
       </c>
@@ -11765,7 +11765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="77" t="s">
         <v>110</v>
       </c>
@@ -11786,7 +11786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="77" t="s">
         <v>110</v>
       </c>
@@ -11807,7 +11807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="77" t="s">
         <v>110</v>
       </c>
@@ -11828,7 +11828,7 @@
         <v>12176</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="77" t="s">
         <v>110</v>
       </c>
@@ -11849,7 +11849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="77" t="s">
         <v>110</v>
       </c>
@@ -11870,7 +11870,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="77" t="s">
         <v>110</v>
       </c>
@@ -11891,7 +11891,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="77" t="s">
         <v>110</v>
       </c>
@@ -11912,7 +11912,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="77" t="s">
         <v>110</v>
       </c>
@@ -11933,7 +11933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="77" t="s">
         <v>110</v>
       </c>
@@ -11954,7 +11954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="77" t="s">
         <v>110</v>
       </c>
@@ -11975,7 +11975,7 @@
         <v>4081</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="77" t="s">
         <v>110</v>
       </c>
@@ -11996,7 +11996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="77" t="s">
         <v>110</v>
       </c>
@@ -12017,7 +12017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="77" t="s">
         <v>110</v>
       </c>
@@ -12038,7 +12038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="77" t="s">
         <v>110</v>
       </c>
@@ -12059,7 +12059,7 @@
         <v>46110</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="77" t="s">
         <v>110</v>
       </c>
@@ -12080,7 +12080,7 @@
         <v>10017</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="77" t="s">
         <v>110</v>
       </c>
@@ -12101,7 +12101,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="77" t="s">
         <v>110</v>
       </c>
@@ -12122,7 +12122,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="77" t="s">
         <v>110</v>
       </c>
@@ -12143,7 +12143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="77" t="s">
         <v>110</v>
       </c>
@@ -12164,7 +12164,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="77" t="s">
         <v>110</v>
       </c>
@@ -12185,7 +12185,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="77" t="s">
         <v>110</v>
       </c>
@@ -12206,7 +12206,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="77" t="s">
         <v>110</v>
       </c>
@@ -12227,7 +12227,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="77" t="s">
         <v>110</v>
       </c>
@@ -12248,7 +12248,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="77" t="s">
         <v>110</v>
       </c>
@@ -12269,7 +12269,7 @@
         <v>12940</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="77" t="s">
         <v>110</v>
       </c>
@@ -12290,7 +12290,7 @@
         <v>12105</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="77" t="s">
         <v>110</v>
       </c>
@@ -12311,7 +12311,7 @@
         <v>13394</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="77" t="s">
         <v>110</v>
       </c>
@@ -12332,7 +12332,7 @@
         <v>63789</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="77" t="s">
         <v>110</v>
       </c>
@@ -12353,7 +12353,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="77" t="s">
         <v>110</v>
       </c>
@@ -12374,7 +12374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="77" t="s">
         <v>110</v>
       </c>
@@ -12395,7 +12395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="77" t="s">
         <v>110</v>
       </c>
@@ -12416,7 +12416,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="77" t="s">
         <v>110</v>
       </c>
@@ -12437,7 +12437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="77" t="s">
         <v>110</v>
       </c>
@@ -12458,7 +12458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="77" t="s">
         <v>110</v>
       </c>
@@ -12479,7 +12479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="77" t="s">
         <v>110</v>
       </c>
@@ -12500,7 +12500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="77" t="s">
         <v>110</v>
       </c>
@@ -12521,7 +12521,7 @@
         <v>2329</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="77" t="s">
         <v>110</v>
       </c>
@@ -12542,7 +12542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="77" t="s">
         <v>110</v>
       </c>
@@ -12563,7 +12563,7 @@
         <v>3629</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="77" t="s">
         <v>110</v>
       </c>
@@ -12584,7 +12584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="77" t="s">
         <v>110</v>
       </c>
@@ -12605,7 +12605,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="77" t="s">
         <v>110</v>
       </c>
@@ -12626,7 +12626,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="77" t="s">
         <v>110</v>
       </c>
@@ -12647,7 +12647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="77" t="s">
         <v>112</v>
       </c>
@@ -12668,7 +12668,7 @@
         <v>73819</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="77" t="s">
         <v>113</v>
       </c>
@@ -12689,7 +12689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="77" t="s">
         <v>115</v>
       </c>
@@ -12710,7 +12710,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="77" t="s">
         <v>115</v>
       </c>
@@ -12731,7 +12731,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="77" t="s">
         <v>115</v>
       </c>
@@ -12752,7 +12752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="77" t="s">
         <v>115</v>
       </c>
@@ -12773,7 +12773,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="77" t="s">
         <v>115</v>
       </c>
@@ -12794,7 +12794,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="77" t="s">
         <v>106</v>
       </c>
@@ -12815,7 +12815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="77" t="s">
         <v>118</v>
       </c>
@@ -12836,7 +12836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="77" t="s">
         <v>104</v>
       </c>
@@ -12857,7 +12857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="77" t="s">
         <v>104</v>
       </c>
@@ -12878,7 +12878,7 @@
         <v>3963</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="77" t="s">
         <v>104</v>
       </c>
@@ -12899,7 +12899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="77" t="s">
         <v>104</v>
       </c>
@@ -12920,7 +12920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="77" t="s">
         <v>104</v>
       </c>
@@ -12941,7 +12941,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="77" t="s">
         <v>104</v>
       </c>
@@ -12962,7 +12962,7 @@
         <v>6762</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="77" t="s">
         <v>122</v>
       </c>
@@ -12983,7 +12983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="77" t="s">
         <v>122</v>
       </c>
@@ -13004,7 +13004,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="77" t="s">
         <v>122</v>
       </c>
@@ -13025,7 +13025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="77" t="s">
         <v>122</v>
       </c>
@@ -13046,7 +13046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="77" t="s">
         <v>122</v>
       </c>
@@ -13067,7 +13067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="77" t="s">
         <v>122</v>
       </c>
@@ -13088,7 +13088,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="77" t="s">
         <v>122</v>
       </c>
@@ -13109,7 +13109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="77" t="s">
         <v>122</v>
       </c>
@@ -13130,7 +13130,7 @@
         <v>9490</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="77" t="s">
         <v>122</v>
       </c>
@@ -13151,7 +13151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="77" t="s">
         <v>122</v>
       </c>
@@ -13172,7 +13172,7 @@
         <v>112731</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="77" t="s">
         <v>123</v>
       </c>
@@ -13193,7 +13193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="77" t="s">
         <v>123</v>
       </c>
@@ -13214,7 +13214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="77" t="s">
         <v>126</v>
       </c>
@@ -13235,7 +13235,7 @@
         <v>8491</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="77" t="s">
         <v>126</v>
       </c>
@@ -13256,7 +13256,7 @@
         <v>21563</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="77"/>
       <c r="B151" s="75"/>
       <c r="C151" s="75"/>
@@ -13264,7 +13264,7 @@
       <c r="E151" s="76"/>
       <c r="F151" s="76"/>
     </row>
-    <row r="152" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="77"/>
       <c r="B152" s="75"/>
       <c r="C152" s="75"/>
@@ -13272,7 +13272,7 @@
       <c r="E152" s="76"/>
       <c r="F152" s="76"/>
     </row>
-    <row r="153" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="77"/>
       <c r="B153" s="75"/>
       <c r="C153" s="75"/>
@@ -13280,7 +13280,7 @@
       <c r="E153" s="76"/>
       <c r="F153" s="76"/>
     </row>
-    <row r="154" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="77"/>
       <c r="B154" s="75"/>
       <c r="C154" s="75"/>
@@ -13288,7 +13288,7 @@
       <c r="E154" s="76"/>
       <c r="F154" s="76"/>
     </row>
-    <row r="155" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="77"/>
       <c r="B155" s="75"/>
       <c r="C155" s="75"/>
@@ -13296,7 +13296,7 @@
       <c r="E155" s="76"/>
       <c r="F155" s="76"/>
     </row>
-    <row r="156" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="77"/>
       <c r="B156" s="75"/>
       <c r="C156" s="75"/>
@@ -13304,7 +13304,7 @@
       <c r="E156" s="76"/>
       <c r="F156" s="76"/>
     </row>
-    <row r="157" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="77"/>
       <c r="B157" s="75"/>
       <c r="C157" s="75"/>
@@ -13312,7 +13312,7 @@
       <c r="E157" s="76"/>
       <c r="F157" s="76"/>
     </row>
-    <row r="158" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="77"/>
       <c r="B158" s="75"/>
       <c r="C158" s="75"/>
@@ -13320,7 +13320,7 @@
       <c r="E158" s="76"/>
       <c r="F158" s="76"/>
     </row>
-    <row r="159" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="77"/>
       <c r="B159" s="75"/>
       <c r="C159" s="75"/>
@@ -13328,7 +13328,7 @@
       <c r="E159" s="76"/>
       <c r="F159" s="76"/>
     </row>
-    <row r="160" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="77"/>
       <c r="B160" s="75"/>
       <c r="C160" s="75"/>
@@ -13336,7 +13336,7 @@
       <c r="E160" s="76"/>
       <c r="F160" s="76"/>
     </row>
-    <row r="161" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="77"/>
       <c r="B161" s="75"/>
       <c r="C161" s="75"/>
@@ -13344,7 +13344,7 @@
       <c r="E161" s="76"/>
       <c r="F161" s="76"/>
     </row>
-    <row r="162" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="77"/>
       <c r="B162" s="75"/>
       <c r="C162" s="75"/>
@@ -13366,15 +13366,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="15.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="99.42578125" customWidth="1"/>
+    <col min="1" max="1" width="12.77734375" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="99.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="78" t="s">
         <v>421</v>
       </c>
@@ -13388,7 +13388,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="80">
         <v>44211</v>
       </c>
@@ -13402,7 +13402,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="80">
         <v>44351</v>
       </c>
@@ -13416,7 +13416,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="80">
         <v>44392</v>
       </c>
@@ -13430,151 +13430,151 @@
         <v>431</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="83"/>
       <c r="B5" s="84"/>
       <c r="C5" s="85"/>
       <c r="D5" s="74"/>
     </row>
-    <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="83"/>
       <c r="B6" s="84"/>
       <c r="C6" s="85"/>
       <c r="D6" s="74"/>
     </row>
-    <row r="7" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="83"/>
       <c r="B7" s="84"/>
       <c r="C7" s="85"/>
       <c r="D7" s="74"/>
     </row>
-    <row r="8" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="83"/>
       <c r="B8" s="84"/>
       <c r="C8" s="85"/>
       <c r="D8" s="74"/>
     </row>
-    <row r="9" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="86"/>
       <c r="B9" s="84"/>
       <c r="C9" s="87"/>
       <c r="D9" s="88"/>
     </row>
-    <row r="10" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="86"/>
       <c r="B10" s="84"/>
       <c r="C10" s="87"/>
       <c r="D10" s="88"/>
     </row>
-    <row r="11" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="86"/>
       <c r="B11" s="84"/>
       <c r="C11" s="87"/>
       <c r="D11" s="88"/>
     </row>
-    <row r="12" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="86"/>
       <c r="B12" s="84"/>
       <c r="C12" s="87"/>
       <c r="D12" s="88"/>
     </row>
-    <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="86"/>
       <c r="B13" s="84"/>
       <c r="C13" s="89"/>
       <c r="D13" s="90"/>
     </row>
-    <row r="14" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="86"/>
       <c r="B14" s="84"/>
       <c r="C14" s="87"/>
       <c r="D14" s="88"/>
     </row>
-    <row r="15" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="86"/>
       <c r="B15" s="84"/>
       <c r="C15" s="87"/>
       <c r="D15" s="88"/>
     </row>
-    <row r="16" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="86"/>
       <c r="B16" s="84"/>
       <c r="C16" s="87"/>
       <c r="D16" s="88"/>
     </row>
-    <row r="17" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="86"/>
       <c r="B17" s="84"/>
       <c r="C17" s="87"/>
       <c r="D17" s="88"/>
     </row>
-    <row r="18" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="86"/>
       <c r="B18" s="84"/>
       <c r="C18" s="87"/>
       <c r="D18" s="88"/>
     </row>
-    <row r="19" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="86"/>
       <c r="B19" s="84"/>
       <c r="C19" s="87"/>
       <c r="D19" s="88"/>
     </row>
-    <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="86"/>
       <c r="B20" s="84"/>
       <c r="C20" s="87"/>
       <c r="D20" s="88"/>
     </row>
-    <row r="21" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="86"/>
       <c r="B21" s="84"/>
       <c r="C21" s="87"/>
       <c r="D21" s="88"/>
     </row>
-    <row r="22" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="86"/>
       <c r="B22" s="84"/>
       <c r="C22" s="87"/>
       <c r="D22" s="88"/>
     </row>
-    <row r="23" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="86"/>
       <c r="B23" s="84"/>
       <c r="C23" s="87"/>
       <c r="D23" s="88"/>
     </row>
-    <row r="24" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="83"/>
       <c r="B24" s="84"/>
       <c r="C24" s="91"/>
       <c r="D24" s="74"/>
     </row>
-    <row r="25" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="83"/>
       <c r="B25" s="84"/>
       <c r="C25" s="91"/>
       <c r="D25" s="74"/>
     </row>
-    <row r="26" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="83"/>
       <c r="B26" s="84"/>
       <c r="C26" s="91"/>
       <c r="D26" s="74"/>
     </row>
-    <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="83"/>
       <c r="B27" s="84"/>
       <c r="C27" s="91"/>
       <c r="D27" s="74"/>
     </row>
-    <row r="28" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="83"/>
       <c r="B28" s="84"/>
       <c r="C28" s="91"/>
       <c r="D28" s="74"/>
     </row>
-    <row r="29" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="83"/>
       <c r="B29" s="84"/>
       <c r="C29" s="91"/>
